--- a/test/move_axle_loc.xlsx
+++ b/test/move_axle_loc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
   <si>
     <t>prev</t>
   </si>
@@ -53,7 +53,7 @@
     <t>(ltr or rtl</t>
   </si>
   <si>
-    <t>rtl</t>
+    <t>ltr</t>
   </si>
 </sst>
 </file>
@@ -414,28 +414,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:D22"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="1">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+      <c r="U2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -445,8 +463,35 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N3" t="s">
+        <v>7</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -462,8 +507,53 @@
       <c r="E4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s">
+        <v>3</v>
+      </c>
+      <c r="T4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -474,14 +564,65 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="E5">
-        <f ca="1">IF($C$3="ltr",D5+INDIRECT(_xlfn.CONCAT("C",$C$2-1+5)),D5-INDIRECT(_xlfn.CONCAT("C",$C$2-1+5)))</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <f ca="1">IF(C$3="ltr",D5+INDIRECT(_xlfn.CONCAT("C",C$2-1+5)),D5-INDIRECT(_xlfn.CONCAT("C",C$2-1+5)))</f>
+        <v>83</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f ca="1">E5</f>
+        <v>83</v>
+      </c>
+      <c r="K5">
+        <f ca="1">IF(I$3="ltr",J5+INDIRECT(_xlfn.CONCAT("C",I$2-1+5)),J5-INDIRECT(_xlfn.CONCAT("C",I$2-1+5)))</f>
+        <v>88</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f ca="1">K5</f>
+        <v>88</v>
+      </c>
+      <c r="Q5">
+        <f ca="1">IF(O$3="ltr",P5+INDIRECT(_xlfn.CONCAT("C",O$2-1+5)),P5-INDIRECT(_xlfn.CONCAT("C",O$2-1+5)))</f>
+        <v>93</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <f ca="1">Q5</f>
+        <v>93</v>
+      </c>
+      <c r="W5">
+        <f ca="1">IF(U$3="ltr",V5+INDIRECT(_xlfn.CONCAT("C",U$2-1+5)),V5-INDIRECT(_xlfn.CONCAT("C",U$2-1+5)))</f>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -492,14 +633,65 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="E6">
-        <f t="shared" ref="E6:E22" ca="1" si="0">IF($C$3="ltr",D6+INDIRECT(_xlfn.CONCAT("C",$C$2-1+5)),D6-INDIRECT(_xlfn.CONCAT("C",$C$2-1+5)))</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <f ca="1">IF(C$3="ltr",D6+INDIRECT(_xlfn.CONCAT("C",C$2-1+5)),D6-INDIRECT(_xlfn.CONCAT("C",C$2-1+5)))</f>
+        <v>75</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>8</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J22" ca="1" si="0">E6</f>
+        <v>75</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:K22" ca="1" si="1">IF(I$3="ltr",J6+INDIRECT(_xlfn.CONCAT("C",I$2-1+5)),J6-INDIRECT(_xlfn.CONCAT("C",I$2-1+5)))</f>
+        <v>80</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <f t="shared" ref="P6:P22" ca="1" si="2">K6</f>
+        <v>80</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" ref="Q6:Q22" ca="1" si="3">IF(O$3="ltr",P6+INDIRECT(_xlfn.CONCAT("C",O$2-1+5)),P6-INDIRECT(_xlfn.CONCAT("C",O$2-1+5)))</f>
+        <v>85</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>2</v>
+      </c>
+      <c r="U6">
+        <v>8</v>
+      </c>
+      <c r="V6">
+        <f t="shared" ref="V6:V22" ca="1" si="4">Q6</f>
+        <v>85</v>
+      </c>
+      <c r="W6">
+        <f t="shared" ref="W6:W22" ca="1" si="5">IF(U$3="ltr",V6+INDIRECT(_xlfn.CONCAT("C",U$2-1+5)),V6-INDIRECT(_xlfn.CONCAT("C",U$2-1+5)))</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -510,14 +702,65 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E7">
+        <f t="shared" ref="E7:E22" ca="1" si="6">IF(C$3="ltr",D7+INDIRECT(_xlfn.CONCAT("C",C$2-1+5)),D7-INDIRECT(_xlfn.CONCAT("C",C$2-1+5)))</f>
+        <v>70</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <f t="shared" ca="1" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" ca="1" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="S7">
+        <v>2</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7">
+        <f t="shared" ca="1" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="W7">
+        <f t="shared" ca="1" si="5"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -528,14 +771,65 @@
         <v>5</v>
       </c>
       <c r="D8">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E8">
+        <f t="shared" ca="1" si="6"/>
+        <v>65</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>5</v>
+      </c>
+      <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <f t="shared" ca="1" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ca="1" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="S8">
+        <v>3</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ca="1" si="4"/>
+        <v>75</v>
+      </c>
+      <c r="W8">
+        <f t="shared" ca="1" si="5"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -546,86 +840,341 @@
         <v>5</v>
       </c>
       <c r="D9">
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="6"/>
+        <v>60</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ca="1" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+      <c r="P9">
+        <f t="shared" ca="1" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
+        <v>5</v>
+      </c>
+      <c r="U9">
+        <v>5</v>
+      </c>
+      <c r="V9">
+        <f t="shared" ca="1" si="4"/>
+        <v>70</v>
+      </c>
+      <c r="W9">
+        <f t="shared" ca="1" si="5"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
         <v>43</v>
       </c>
-      <c r="E9">
+      <c r="E10">
+        <f t="shared" ca="1" si="6"/>
+        <v>51</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="I10">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="M10">
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>9</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ca="1" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="Q10">
+        <f ca="1">IF(O$3="ltr",P10+INDIRECT(_xlfn.CONCAT("C",O$2-1+5)),P10-INDIRECT(_xlfn.CONCAT("C",O$2-1+5)))</f>
+        <v>61</v>
+      </c>
+      <c r="S10">
+        <v>5</v>
+      </c>
+      <c r="T10">
+        <v>6</v>
+      </c>
+      <c r="U10">
+        <v>9</v>
+      </c>
+      <c r="V10">
+        <f t="shared" ca="1" si="4"/>
+        <v>61</v>
+      </c>
+      <c r="W10">
+        <f t="shared" ca="1" si="5"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>6</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>38</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="6"/>
+        <v>46</v>
+      </c>
+      <c r="G11">
+        <v>6</v>
+      </c>
+      <c r="H11">
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="M11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>7</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <f t="shared" ca="1" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" ca="1" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="S11">
+        <v>6</v>
+      </c>
+      <c r="T11">
+        <v>7</v>
+      </c>
+      <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <f t="shared" ca="1" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="W11">
+        <f t="shared" ca="1" si="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>32</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>8</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="K12">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>8</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <f t="shared" ca="1" si="2"/>
+        <v>45</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" ca="1" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="S12">
+        <v>7</v>
+      </c>
+      <c r="T12">
+        <v>8</v>
+      </c>
+      <c r="U12">
+        <v>6</v>
+      </c>
+      <c r="V12">
+        <f t="shared" ca="1" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="W12">
+        <f t="shared" ca="1" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>8</v>
+      </c>
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="6"/>
+        <v>35</v>
+      </c>
+      <c r="G13">
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <v>9</v>
+      </c>
+      <c r="I13">
+        <v>5</v>
+      </c>
+      <c r="J13">
         <f t="shared" ca="1" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>6</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10">
-        <v>52</v>
-      </c>
-      <c r="E10">
-        <f t="shared" ca="1" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>6</v>
-      </c>
-      <c r="B11">
-        <v>7</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-      <c r="D11">
-        <v>57</v>
-      </c>
-      <c r="E11">
-        <f t="shared" ca="1" si="0"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>7</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>63</v>
-      </c>
-      <c r="E12">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
-      </c>
-      <c r="D13">
-        <v>68</v>
-      </c>
-      <c r="E13">
-        <f t="shared" ca="1" si="0"/>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="K13">
+        <f t="shared" ca="1" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="M13">
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <v>9</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <f t="shared" ca="1" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="S13">
+        <v>8</v>
+      </c>
+      <c r="T13">
+        <v>9</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13">
+        <f t="shared" ca="1" si="4"/>
+        <v>45</v>
+      </c>
+      <c r="W13">
+        <f t="shared" ca="1" si="5"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -636,14 +1185,65 @@
         <v>8</v>
       </c>
       <c r="D14">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="E14">
+        <f t="shared" ca="1" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+      <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="M14">
+        <v>9</v>
+      </c>
+      <c r="N14">
+        <v>10</v>
+      </c>
+      <c r="O14">
+        <v>8</v>
+      </c>
+      <c r="P14">
+        <f t="shared" ca="1" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" ca="1" si="3"/>
+        <v>37</v>
+      </c>
+      <c r="S14">
+        <v>9</v>
+      </c>
+      <c r="T14">
+        <v>10</v>
+      </c>
+      <c r="U14">
+        <v>8</v>
+      </c>
+      <c r="V14">
+        <f t="shared" ca="1" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="W14">
+        <f t="shared" ca="1" si="5"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -654,14 +1254,65 @@
         <v>8</v>
       </c>
       <c r="D15">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="E15">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <v>11</v>
+      </c>
+      <c r="I15">
+        <v>8</v>
+      </c>
+      <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="K15">
+        <f t="shared" ca="1" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15">
+        <v>11</v>
+      </c>
+      <c r="O15">
+        <v>8</v>
+      </c>
+      <c r="P15">
+        <f t="shared" ca="1" si="2"/>
+        <v>24</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" ca="1" si="3"/>
+        <v>29</v>
+      </c>
+      <c r="S15">
+        <v>10</v>
+      </c>
+      <c r="T15">
+        <v>11</v>
+      </c>
+      <c r="U15">
+        <v>8</v>
+      </c>
+      <c r="V15">
+        <f t="shared" ca="1" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="W15">
+        <f t="shared" ca="1" si="5"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -672,14 +1323,65 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="E16">
+        <f t="shared" ca="1" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>11</v>
+      </c>
+      <c r="H16">
+        <v>12</v>
+      </c>
+      <c r="I16">
+        <v>5</v>
+      </c>
+      <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ca="1" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="M16">
+        <v>11</v>
+      </c>
+      <c r="N16">
+        <v>12</v>
+      </c>
+      <c r="O16">
+        <v>5</v>
+      </c>
+      <c r="P16">
+        <f t="shared" ca="1" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" ca="1" si="3"/>
+        <v>24</v>
+      </c>
+      <c r="S16">
+        <v>11</v>
+      </c>
+      <c r="T16">
+        <v>12</v>
+      </c>
+      <c r="U16">
+        <v>5</v>
+      </c>
+      <c r="V16">
+        <f t="shared" ca="1" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="W16">
+        <f t="shared" ca="1" si="5"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -690,14 +1392,65 @@
         <v>5</v>
       </c>
       <c r="D17">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="E17">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>13</v>
+      </c>
+      <c r="I17">
+        <v>5</v>
+      </c>
+      <c r="J17">
         <f t="shared" ca="1" si="0"/>
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+      <c r="N17">
+        <v>13</v>
+      </c>
+      <c r="O17">
+        <v>5</v>
+      </c>
+      <c r="P17">
+        <f t="shared" ca="1" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" ca="1" si="3"/>
+        <v>19</v>
+      </c>
+      <c r="S17">
+        <v>12</v>
+      </c>
+      <c r="T17">
+        <v>13</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="V17">
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="W17">
+        <f t="shared" ca="1" si="5"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -708,14 +1461,65 @@
         <v>5</v>
       </c>
       <c r="D18">
-        <v>99</v>
+        <v>-4</v>
       </c>
       <c r="E18">
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>14</v>
+      </c>
+      <c r="I18">
+        <v>5</v>
+      </c>
+      <c r="J18">
         <f t="shared" ca="1" si="0"/>
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>13</v>
+      </c>
+      <c r="N18">
+        <v>14</v>
+      </c>
+      <c r="O18">
+        <v>5</v>
+      </c>
+      <c r="P18">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" ca="1" si="3"/>
+        <v>14</v>
+      </c>
+      <c r="S18">
+        <v>13</v>
+      </c>
+      <c r="T18">
+        <v>14</v>
+      </c>
+      <c r="U18">
+        <v>5</v>
+      </c>
+      <c r="V18">
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="W18">
+        <f t="shared" ca="1" si="5"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -726,14 +1530,65 @@
         <v>9</v>
       </c>
       <c r="D19">
-        <v>108</v>
+        <v>-13</v>
       </c>
       <c r="E19">
+        <f t="shared" ca="1" si="6"/>
+        <v>-5</v>
+      </c>
+      <c r="G19">
+        <v>14</v>
+      </c>
+      <c r="H19">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <v>9</v>
+      </c>
+      <c r="J19">
         <f t="shared" ca="1" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-5</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>14</v>
+      </c>
+      <c r="N19">
+        <v>15</v>
+      </c>
+      <c r="O19">
+        <v>9</v>
+      </c>
+      <c r="P19">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="S19">
+        <v>14</v>
+      </c>
+      <c r="T19">
+        <v>15</v>
+      </c>
+      <c r="U19">
+        <v>9</v>
+      </c>
+      <c r="V19">
+        <f t="shared" ca="1" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="W19">
+        <f t="shared" ca="1" si="5"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -744,14 +1599,65 @@
         <v>5</v>
       </c>
       <c r="D20">
-        <v>113</v>
+        <v>-18</v>
       </c>
       <c r="E20">
+        <f t="shared" ca="1" si="6"/>
+        <v>-10</v>
+      </c>
+      <c r="G20">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
         <f t="shared" ca="1" si="0"/>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-10</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="M20">
+        <v>15</v>
+      </c>
+      <c r="N20">
+        <v>16</v>
+      </c>
+      <c r="O20">
+        <v>5</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ca="1" si="2"/>
+        <v>-5</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>15</v>
+      </c>
+      <c r="T20">
+        <v>16</v>
+      </c>
+      <c r="U20">
+        <v>5</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -762,14 +1668,65 @@
         <v>6</v>
       </c>
       <c r="D21">
-        <v>119</v>
+        <v>-24</v>
       </c>
       <c r="E21">
+        <f t="shared" ca="1" si="6"/>
+        <v>-16</v>
+      </c>
+      <c r="G21">
+        <v>16</v>
+      </c>
+      <c r="H21">
+        <v>17</v>
+      </c>
+      <c r="I21">
+        <v>6</v>
+      </c>
+      <c r="J21">
         <f t="shared" ca="1" si="0"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-16</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="1"/>
+        <v>-11</v>
+      </c>
+      <c r="M21">
+        <v>16</v>
+      </c>
+      <c r="N21">
+        <v>17</v>
+      </c>
+      <c r="O21">
+        <v>6</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ca="1" si="2"/>
+        <v>-11</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ca="1" si="3"/>
+        <v>-6</v>
+      </c>
+      <c r="S21">
+        <v>16</v>
+      </c>
+      <c r="T21">
+        <v>17</v>
+      </c>
+      <c r="U21">
+        <v>6</v>
+      </c>
+      <c r="V21">
+        <f t="shared" ca="1" si="4"/>
+        <v>-6</v>
+      </c>
+      <c r="W21">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -780,14 +1737,65 @@
         <v>5</v>
       </c>
       <c r="D22">
-        <v>124</v>
+        <v>-29</v>
       </c>
       <c r="E22">
+        <f t="shared" ca="1" si="6"/>
+        <v>-21</v>
+      </c>
+      <c r="G22">
+        <v>17</v>
+      </c>
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
         <f t="shared" ca="1" si="0"/>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>-21</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="1"/>
+        <v>-16</v>
+      </c>
+      <c r="M22">
+        <v>17</v>
+      </c>
+      <c r="N22">
+        <v>18</v>
+      </c>
+      <c r="O22">
+        <v>5</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ca="1" si="2"/>
+        <v>-16</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ca="1" si="3"/>
+        <v>-11</v>
+      </c>
+      <c r="S22">
+        <v>17</v>
+      </c>
+      <c r="T22">
+        <v>18</v>
+      </c>
+      <c r="U22">
+        <v>5</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ca="1" si="4"/>
+        <v>-11</v>
+      </c>
+      <c r="W22">
+        <f t="shared" ca="1" si="5"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>

--- a/test/move_axle_loc.xlsx
+++ b/test/move_axle_loc.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="10">
   <si>
     <t>prev</t>
   </si>
@@ -95,11 +95,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,20 +415,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W24"/>
+  <dimension ref="A1:BG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W5" sqref="W5:W22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -452,8 +453,44 @@
       <c r="U2" s="1">
         <v>5</v>
       </c>
+      <c r="Z2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>7</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>8</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="1">
+        <v>9</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY2" s="1">
+        <v>10</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE2" s="1">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>7</v>
       </c>
@@ -466,8 +503,9 @@
       <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>9</v>
+      <c r="I3" s="1" t="str">
+        <f>C3</f>
+        <v>ltr</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -475,8 +513,9 @@
       <c r="N3" t="s">
         <v>7</v>
       </c>
-      <c r="O3" s="1" t="s">
-        <v>9</v>
+      <c r="O3" s="1" t="str">
+        <f>I3</f>
+        <v>ltr</v>
       </c>
       <c r="P3" t="s">
         <v>8</v>
@@ -484,14 +523,75 @@
       <c r="T3" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>9</v>
+      <c r="U3" s="1" t="str">
+        <f>O3</f>
+        <v>ltr</v>
       </c>
       <c r="V3" t="s">
         <v>8</v>
       </c>
+      <c r="Z3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA3" s="1" t="str">
+        <f>U3</f>
+        <v>ltr</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG3" s="1" t="str">
+        <f>AA3</f>
+        <v>ltr</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM3" s="1" t="str">
+        <f>AG3</f>
+        <v>ltr</v>
+      </c>
+      <c r="AN3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AS3" s="1" t="str">
+        <f>AM3</f>
+        <v>ltr</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>7</v>
+      </c>
+      <c r="AY3" s="1" t="str">
+        <f>AS3</f>
+        <v>ltr</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>8</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>7</v>
+      </c>
+      <c r="BE3" s="1" t="str">
+        <f>AY3</f>
+        <v>ltr</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -552,8 +652,98 @@
       <c r="W4" t="s">
         <v>4</v>
       </c>
+      <c r="Y4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>0</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>3</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>4</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>3</v>
+      </c>
+      <c r="BD4" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>0</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0</v>
       </c>
@@ -563,7 +753,7 @@
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>75</v>
       </c>
       <c r="E5">
@@ -621,8 +811,110 @@
         <f ca="1">IF(U$3="ltr",V5+INDIRECT(_xlfn.CONCAT("C",U$2-1+5)),V5-INDIRECT(_xlfn.CONCAT("C",U$2-1+5)))</f>
         <v>98</v>
       </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <f ca="1">W5</f>
+        <v>98</v>
+      </c>
+      <c r="AC5">
+        <f ca="1">IF(AA$3="ltr",AB5+INDIRECT(_xlfn.CONCAT("C",AA$2-1+5)),AB5-INDIRECT(_xlfn.CONCAT("C",AA$2-1+5)))</f>
+        <v>107</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>1</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <f ca="1">AC5</f>
+        <v>107</v>
+      </c>
+      <c r="AI5">
+        <f ca="1">IF(AG$3="ltr",AH5+INDIRECT(_xlfn.CONCAT("C",AG$2-1+5)),AH5-INDIRECT(_xlfn.CONCAT("C",AG$2-1+5)))</f>
+        <v>112</v>
+      </c>
+      <c r="AK5">
+        <v>0</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <f ca="1">AI5</f>
+        <v>112</v>
+      </c>
+      <c r="AO5">
+        <f ca="1">IF(AM$3="ltr",AN5+INDIRECT(_xlfn.CONCAT("C",AM$2-1+5)),AN5-INDIRECT(_xlfn.CONCAT("C",AM$2-1+5)))</f>
+        <v>118</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>1</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <f ca="1">AO5</f>
+        <v>118</v>
+      </c>
+      <c r="AU5">
+        <f ca="1">IF(AS$3="ltr",AT5+INDIRECT(_xlfn.CONCAT("C",AS$2-1+5)),AT5-INDIRECT(_xlfn.CONCAT("C",AS$2-1+5)))</f>
+        <v>123</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1</v>
+      </c>
+      <c r="AY5">
+        <v>0</v>
+      </c>
+      <c r="AZ5">
+        <f ca="1">AU5</f>
+        <v>123</v>
+      </c>
+      <c r="BA5">
+        <f ca="1">IF(AY$3="ltr",AZ5+INDIRECT(_xlfn.CONCAT("C",AY$2-1+5)),AZ5-INDIRECT(_xlfn.CONCAT("C",AY$2-1+5)))</f>
+        <v>131</v>
+      </c>
+      <c r="BC5">
+        <v>0</v>
+      </c>
+      <c r="BD5">
+        <v>1</v>
+      </c>
+      <c r="BE5">
+        <v>0</v>
+      </c>
+      <c r="BF5">
+        <f ca="1">BA5</f>
+        <v>131</v>
+      </c>
+      <c r="BG5">
+        <f ca="1">IF(BE$3="ltr",BF5+INDIRECT(_xlfn.CONCAT("C",BE$2-1+5)),BF5-INDIRECT(_xlfn.CONCAT("C",BE$2-1+5)))</f>
+        <v>139</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -632,7 +924,7 @@
       <c r="C6">
         <v>8</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>67</v>
       </c>
       <c r="E6">
@@ -690,8 +982,110 @@
         <f t="shared" ref="W6:W22" ca="1" si="5">IF(U$3="ltr",V6+INDIRECT(_xlfn.CONCAT("C",U$2-1+5)),V6-INDIRECT(_xlfn.CONCAT("C",U$2-1+5)))</f>
         <v>90</v>
       </c>
+      <c r="Y6">
+        <v>1</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>8</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" ref="AB6:AB22" ca="1" si="6">W6</f>
+        <v>90</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" ref="AC6:AC22" ca="1" si="7">IF(AA$3="ltr",AB6+INDIRECT(_xlfn.CONCAT("C",AA$2-1+5)),AB6-INDIRECT(_xlfn.CONCAT("C",AA$2-1+5)))</f>
+        <v>99</v>
+      </c>
+      <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>2</v>
+      </c>
+      <c r="AG6">
+        <v>8</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" ref="AH6:AH22" ca="1" si="8">AC6</f>
+        <v>99</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" ref="AI6:AI9" ca="1" si="9">IF(AG$3="ltr",AH6+INDIRECT(_xlfn.CONCAT("C",AG$2-1+5)),AH6-INDIRECT(_xlfn.CONCAT("C",AG$2-1+5)))</f>
+        <v>104</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>2</v>
+      </c>
+      <c r="AM6">
+        <v>8</v>
+      </c>
+      <c r="AN6">
+        <f t="shared" ref="AN6:AN22" ca="1" si="10">AI6</f>
+        <v>104</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" ref="AO6:AO22" ca="1" si="11">IF(AM$3="ltr",AN6+INDIRECT(_xlfn.CONCAT("C",AM$2-1+5)),AN6-INDIRECT(_xlfn.CONCAT("C",AM$2-1+5)))</f>
+        <v>110</v>
+      </c>
+      <c r="AQ6">
+        <v>1</v>
+      </c>
+      <c r="AR6">
+        <v>2</v>
+      </c>
+      <c r="AS6">
+        <v>8</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" ref="AT6:AT22" ca="1" si="12">AO6</f>
+        <v>110</v>
+      </c>
+      <c r="AU6">
+        <f t="shared" ref="AU6:AU22" ca="1" si="13">IF(AS$3="ltr",AT6+INDIRECT(_xlfn.CONCAT("C",AS$2-1+5)),AT6-INDIRECT(_xlfn.CONCAT("C",AS$2-1+5)))</f>
+        <v>115</v>
+      </c>
+      <c r="AW6">
+        <v>1</v>
+      </c>
+      <c r="AX6">
+        <v>2</v>
+      </c>
+      <c r="AY6">
+        <v>8</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" ref="AZ6:AZ22" ca="1" si="14">AU6</f>
+        <v>115</v>
+      </c>
+      <c r="BA6">
+        <f t="shared" ref="BA6:BA9" ca="1" si="15">IF(AY$3="ltr",AZ6+INDIRECT(_xlfn.CONCAT("C",AY$2-1+5)),AZ6-INDIRECT(_xlfn.CONCAT("C",AY$2-1+5)))</f>
+        <v>123</v>
+      </c>
+      <c r="BC6">
+        <v>1</v>
+      </c>
+      <c r="BD6">
+        <v>2</v>
+      </c>
+      <c r="BE6">
+        <v>8</v>
+      </c>
+      <c r="BF6">
+        <f t="shared" ref="BF6:BF22" ca="1" si="16">BA6</f>
+        <v>123</v>
+      </c>
+      <c r="BG6">
+        <f t="shared" ref="BG6:BG22" ca="1" si="17">IF(BE$3="ltr",BF6+INDIRECT(_xlfn.CONCAT("C",BE$2-1+5)),BF6-INDIRECT(_xlfn.CONCAT("C",BE$2-1+5)))</f>
+        <v>131</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -701,11 +1095,11 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>62</v>
       </c>
       <c r="E7">
-        <f t="shared" ref="E7:E22" ca="1" si="6">IF(C$3="ltr",D7+INDIRECT(_xlfn.CONCAT("C",C$2-1+5)),D7-INDIRECT(_xlfn.CONCAT("C",C$2-1+5)))</f>
+        <f t="shared" ref="E7:E22" ca="1" si="18">IF(C$3="ltr",D7+INDIRECT(_xlfn.CONCAT("C",C$2-1+5)),D7-INDIRECT(_xlfn.CONCAT("C",C$2-1+5)))</f>
         <v>70</v>
       </c>
       <c r="G7">
@@ -759,8 +1153,110 @@
         <f t="shared" ca="1" si="5"/>
         <v>85</v>
       </c>
+      <c r="Y7">
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>3</v>
+      </c>
+      <c r="AA7">
+        <v>5</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" ca="1" si="6"/>
+        <v>85</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" ca="1" si="7"/>
+        <v>94</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AF7">
+        <v>3</v>
+      </c>
+      <c r="AG7">
+        <v>5</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" ca="1" si="8"/>
+        <v>94</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" ca="1" si="9"/>
+        <v>99</v>
+      </c>
+      <c r="AK7">
+        <v>2</v>
+      </c>
+      <c r="AL7">
+        <v>3</v>
+      </c>
+      <c r="AM7">
+        <v>5</v>
+      </c>
+      <c r="AN7">
+        <f t="shared" ca="1" si="10"/>
+        <v>99</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" ca="1" si="11"/>
+        <v>105</v>
+      </c>
+      <c r="AQ7">
+        <v>2</v>
+      </c>
+      <c r="AR7">
+        <v>3</v>
+      </c>
+      <c r="AS7">
+        <v>5</v>
+      </c>
+      <c r="AT7">
+        <f t="shared" ca="1" si="12"/>
+        <v>105</v>
+      </c>
+      <c r="AU7">
+        <f t="shared" ca="1" si="13"/>
+        <v>110</v>
+      </c>
+      <c r="AW7">
+        <v>2</v>
+      </c>
+      <c r="AX7">
+        <v>3</v>
+      </c>
+      <c r="AY7">
+        <v>5</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" ca="1" si="14"/>
+        <v>110</v>
+      </c>
+      <c r="BA7">
+        <f t="shared" ca="1" si="15"/>
+        <v>118</v>
+      </c>
+      <c r="BC7">
+        <v>2</v>
+      </c>
+      <c r="BD7">
+        <v>3</v>
+      </c>
+      <c r="BE7">
+        <v>5</v>
+      </c>
+      <c r="BF7">
+        <f t="shared" ca="1" si="16"/>
+        <v>118</v>
+      </c>
+      <c r="BG7">
+        <f t="shared" ca="1" si="17"/>
+        <v>126</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -770,11 +1266,11 @@
       <c r="C8">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>57</v>
       </c>
       <c r="E8">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v>65</v>
       </c>
       <c r="G8">
@@ -828,8 +1324,110 @@
         <f t="shared" ca="1" si="5"/>
         <v>80</v>
       </c>
+      <c r="Y8">
+        <v>3</v>
+      </c>
+      <c r="Z8">
+        <v>4</v>
+      </c>
+      <c r="AA8">
+        <v>5</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" ca="1" si="6"/>
+        <v>80</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" ca="1" si="7"/>
+        <v>89</v>
+      </c>
+      <c r="AE8">
+        <v>3</v>
+      </c>
+      <c r="AF8">
+        <v>4</v>
+      </c>
+      <c r="AG8">
+        <v>5</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" ca="1" si="8"/>
+        <v>89</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" ca="1" si="9"/>
+        <v>94</v>
+      </c>
+      <c r="AK8">
+        <v>3</v>
+      </c>
+      <c r="AL8">
+        <v>4</v>
+      </c>
+      <c r="AM8">
+        <v>5</v>
+      </c>
+      <c r="AN8">
+        <f t="shared" ca="1" si="10"/>
+        <v>94</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" ca="1" si="11"/>
+        <v>100</v>
+      </c>
+      <c r="AQ8">
+        <v>3</v>
+      </c>
+      <c r="AR8">
+        <v>4</v>
+      </c>
+      <c r="AS8">
+        <v>5</v>
+      </c>
+      <c r="AT8">
+        <f t="shared" ca="1" si="12"/>
+        <v>100</v>
+      </c>
+      <c r="AU8">
+        <f t="shared" ca="1" si="13"/>
+        <v>105</v>
+      </c>
+      <c r="AW8">
+        <v>3</v>
+      </c>
+      <c r="AX8">
+        <v>4</v>
+      </c>
+      <c r="AY8">
+        <v>5</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" ca="1" si="14"/>
+        <v>105</v>
+      </c>
+      <c r="BA8">
+        <f t="shared" ca="1" si="15"/>
+        <v>113</v>
+      </c>
+      <c r="BC8">
+        <v>3</v>
+      </c>
+      <c r="BD8">
+        <v>4</v>
+      </c>
+      <c r="BE8">
+        <v>5</v>
+      </c>
+      <c r="BF8">
+        <f t="shared" ca="1" si="16"/>
+        <v>113</v>
+      </c>
+      <c r="BG8">
+        <f t="shared" ca="1" si="17"/>
+        <v>121</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -839,11 +1437,11 @@
       <c r="C9">
         <v>5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>52</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v>60</v>
       </c>
       <c r="G9">
@@ -897,8 +1495,110 @@
         <f t="shared" ca="1" si="5"/>
         <v>75</v>
       </c>
+      <c r="Y9">
+        <v>4</v>
+      </c>
+      <c r="Z9">
+        <v>5</v>
+      </c>
+      <c r="AA9">
+        <v>5</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" ca="1" si="6"/>
+        <v>75</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" ca="1" si="7"/>
+        <v>84</v>
+      </c>
+      <c r="AE9">
+        <v>4</v>
+      </c>
+      <c r="AF9">
+        <v>5</v>
+      </c>
+      <c r="AG9">
+        <v>5</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" ca="1" si="8"/>
+        <v>84</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" ca="1" si="9"/>
+        <v>89</v>
+      </c>
+      <c r="AK9">
+        <v>4</v>
+      </c>
+      <c r="AL9">
+        <v>5</v>
+      </c>
+      <c r="AM9">
+        <v>5</v>
+      </c>
+      <c r="AN9">
+        <f t="shared" ca="1" si="10"/>
+        <v>89</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" ca="1" si="11"/>
+        <v>95</v>
+      </c>
+      <c r="AQ9">
+        <v>4</v>
+      </c>
+      <c r="AR9">
+        <v>5</v>
+      </c>
+      <c r="AS9">
+        <v>5</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" ca="1" si="12"/>
+        <v>95</v>
+      </c>
+      <c r="AU9">
+        <f t="shared" ca="1" si="13"/>
+        <v>100</v>
+      </c>
+      <c r="AW9">
+        <v>4</v>
+      </c>
+      <c r="AX9">
+        <v>5</v>
+      </c>
+      <c r="AY9">
+        <v>5</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" ca="1" si="14"/>
+        <v>100</v>
+      </c>
+      <c r="BA9">
+        <f t="shared" ca="1" si="15"/>
+        <v>108</v>
+      </c>
+      <c r="BC9">
+        <v>4</v>
+      </c>
+      <c r="BD9">
+        <v>5</v>
+      </c>
+      <c r="BE9">
+        <v>5</v>
+      </c>
+      <c r="BF9">
+        <f t="shared" ca="1" si="16"/>
+        <v>108</v>
+      </c>
+      <c r="BG9">
+        <f t="shared" ca="1" si="17"/>
+        <v>116</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -908,11 +1608,11 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>43</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v>51</v>
       </c>
       <c r="G10">
@@ -966,8 +1666,110 @@
         <f t="shared" ca="1" si="5"/>
         <v>66</v>
       </c>
+      <c r="Y10">
+        <v>5</v>
+      </c>
+      <c r="Z10">
+        <v>6</v>
+      </c>
+      <c r="AA10">
+        <v>9</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" ca="1" si="6"/>
+        <v>66</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" ca="1" si="7"/>
+        <v>75</v>
+      </c>
+      <c r="AE10">
+        <v>5</v>
+      </c>
+      <c r="AF10">
+        <v>6</v>
+      </c>
+      <c r="AG10">
+        <v>9</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" ca="1" si="8"/>
+        <v>75</v>
+      </c>
+      <c r="AI10">
+        <f ca="1">IF(AG$3="ltr",AH10+INDIRECT(_xlfn.CONCAT("C",AG$2-1+5)),AH10-INDIRECT(_xlfn.CONCAT("C",AG$2-1+5)))</f>
+        <v>80</v>
+      </c>
+      <c r="AK10">
+        <v>5</v>
+      </c>
+      <c r="AL10">
+        <v>6</v>
+      </c>
+      <c r="AM10">
+        <v>9</v>
+      </c>
+      <c r="AN10">
+        <f t="shared" ca="1" si="10"/>
+        <v>80</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" ca="1" si="11"/>
+        <v>86</v>
+      </c>
+      <c r="AQ10">
+        <v>5</v>
+      </c>
+      <c r="AR10">
+        <v>6</v>
+      </c>
+      <c r="AS10">
+        <v>9</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" ca="1" si="12"/>
+        <v>86</v>
+      </c>
+      <c r="AU10">
+        <f t="shared" ca="1" si="13"/>
+        <v>91</v>
+      </c>
+      <c r="AW10">
+        <v>5</v>
+      </c>
+      <c r="AX10">
+        <v>6</v>
+      </c>
+      <c r="AY10">
+        <v>9</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" ca="1" si="14"/>
+        <v>91</v>
+      </c>
+      <c r="BA10">
+        <f ca="1">IF(AY$3="ltr",AZ10+INDIRECT(_xlfn.CONCAT("C",AY$2-1+5)),AZ10-INDIRECT(_xlfn.CONCAT("C",AY$2-1+5)))</f>
+        <v>99</v>
+      </c>
+      <c r="BC10">
+        <v>5</v>
+      </c>
+      <c r="BD10">
+        <v>6</v>
+      </c>
+      <c r="BE10">
+        <v>9</v>
+      </c>
+      <c r="BF10">
+        <f t="shared" ca="1" si="16"/>
+        <v>99</v>
+      </c>
+      <c r="BG10">
+        <f t="shared" ca="1" si="17"/>
+        <v>107</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>6</v>
       </c>
@@ -977,11 +1779,11 @@
       <c r="C11">
         <v>5</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>38</v>
       </c>
       <c r="E11">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v>46</v>
       </c>
       <c r="G11">
@@ -1035,8 +1837,110 @@
         <f t="shared" ca="1" si="5"/>
         <v>61</v>
       </c>
+      <c r="Y11">
+        <v>6</v>
+      </c>
+      <c r="Z11">
+        <v>7</v>
+      </c>
+      <c r="AA11">
+        <v>5</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" ca="1" si="6"/>
+        <v>61</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" ca="1" si="7"/>
+        <v>70</v>
+      </c>
+      <c r="AE11">
+        <v>6</v>
+      </c>
+      <c r="AF11">
+        <v>7</v>
+      </c>
+      <c r="AG11">
+        <v>5</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" ca="1" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" ref="AI11:AI22" ca="1" si="19">IF(AG$3="ltr",AH11+INDIRECT(_xlfn.CONCAT("C",AG$2-1+5)),AH11-INDIRECT(_xlfn.CONCAT("C",AG$2-1+5)))</f>
+        <v>75</v>
+      </c>
+      <c r="AK11">
+        <v>6</v>
+      </c>
+      <c r="AL11">
+        <v>7</v>
+      </c>
+      <c r="AM11">
+        <v>5</v>
+      </c>
+      <c r="AN11">
+        <f t="shared" ca="1" si="10"/>
+        <v>75</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" ca="1" si="11"/>
+        <v>81</v>
+      </c>
+      <c r="AQ11">
+        <v>6</v>
+      </c>
+      <c r="AR11">
+        <v>7</v>
+      </c>
+      <c r="AS11">
+        <v>5</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" ca="1" si="12"/>
+        <v>81</v>
+      </c>
+      <c r="AU11">
+        <f t="shared" ca="1" si="13"/>
+        <v>86</v>
+      </c>
+      <c r="AW11">
+        <v>6</v>
+      </c>
+      <c r="AX11">
+        <v>7</v>
+      </c>
+      <c r="AY11">
+        <v>5</v>
+      </c>
+      <c r="AZ11">
+        <f t="shared" ca="1" si="14"/>
+        <v>86</v>
+      </c>
+      <c r="BA11">
+        <f t="shared" ref="BA11:BA22" ca="1" si="20">IF(AY$3="ltr",AZ11+INDIRECT(_xlfn.CONCAT("C",AY$2-1+5)),AZ11-INDIRECT(_xlfn.CONCAT("C",AY$2-1+5)))</f>
+        <v>94</v>
+      </c>
+      <c r="BC11">
+        <v>6</v>
+      </c>
+      <c r="BD11">
+        <v>7</v>
+      </c>
+      <c r="BE11">
+        <v>5</v>
+      </c>
+      <c r="BF11">
+        <f t="shared" ca="1" si="16"/>
+        <v>94</v>
+      </c>
+      <c r="BG11">
+        <f t="shared" ca="1" si="17"/>
+        <v>102</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -1046,11 +1950,11 @@
       <c r="C12">
         <v>6</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>32</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v>40</v>
       </c>
       <c r="G12">
@@ -1104,8 +2008,110 @@
         <f t="shared" ca="1" si="5"/>
         <v>55</v>
       </c>
+      <c r="Y12">
+        <v>7</v>
+      </c>
+      <c r="Z12">
+        <v>8</v>
+      </c>
+      <c r="AA12">
+        <v>6</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" ca="1" si="6"/>
+        <v>55</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" ca="1" si="7"/>
+        <v>64</v>
+      </c>
+      <c r="AE12">
+        <v>7</v>
+      </c>
+      <c r="AF12">
+        <v>8</v>
+      </c>
+      <c r="AG12">
+        <v>6</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" ca="1" si="8"/>
+        <v>64</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" ca="1" si="19"/>
+        <v>69</v>
+      </c>
+      <c r="AK12">
+        <v>7</v>
+      </c>
+      <c r="AL12">
+        <v>8</v>
+      </c>
+      <c r="AM12">
+        <v>6</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" ca="1" si="10"/>
+        <v>69</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" ca="1" si="11"/>
+        <v>75</v>
+      </c>
+      <c r="AQ12">
+        <v>7</v>
+      </c>
+      <c r="AR12">
+        <v>8</v>
+      </c>
+      <c r="AS12">
+        <v>6</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" ca="1" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" ca="1" si="13"/>
+        <v>80</v>
+      </c>
+      <c r="AW12">
+        <v>7</v>
+      </c>
+      <c r="AX12">
+        <v>8</v>
+      </c>
+      <c r="AY12">
+        <v>6</v>
+      </c>
+      <c r="AZ12">
+        <f t="shared" ca="1" si="14"/>
+        <v>80</v>
+      </c>
+      <c r="BA12">
+        <f t="shared" ca="1" si="20"/>
+        <v>88</v>
+      </c>
+      <c r="BC12">
+        <v>7</v>
+      </c>
+      <c r="BD12">
+        <v>8</v>
+      </c>
+      <c r="BE12">
+        <v>6</v>
+      </c>
+      <c r="BF12">
+        <f t="shared" ca="1" si="16"/>
+        <v>88</v>
+      </c>
+      <c r="BG12">
+        <f t="shared" ca="1" si="17"/>
+        <v>96</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>8</v>
       </c>
@@ -1115,11 +2121,11 @@
       <c r="C13">
         <v>5</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>27</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v>35</v>
       </c>
       <c r="G13">
@@ -1173,8 +2179,110 @@
         <f t="shared" ca="1" si="5"/>
         <v>50</v>
       </c>
+      <c r="Y13">
+        <v>8</v>
+      </c>
+      <c r="Z13">
+        <v>9</v>
+      </c>
+      <c r="AA13">
+        <v>5</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" ca="1" si="6"/>
+        <v>50</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" ca="1" si="7"/>
+        <v>59</v>
+      </c>
+      <c r="AE13">
+        <v>8</v>
+      </c>
+      <c r="AF13">
+        <v>9</v>
+      </c>
+      <c r="AG13">
+        <v>5</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" ca="1" si="8"/>
+        <v>59</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" ca="1" si="19"/>
+        <v>64</v>
+      </c>
+      <c r="AK13">
+        <v>8</v>
+      </c>
+      <c r="AL13">
+        <v>9</v>
+      </c>
+      <c r="AM13">
+        <v>5</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" ca="1" si="10"/>
+        <v>64</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" ca="1" si="11"/>
+        <v>70</v>
+      </c>
+      <c r="AQ13">
+        <v>8</v>
+      </c>
+      <c r="AR13">
+        <v>9</v>
+      </c>
+      <c r="AS13">
+        <v>5</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" ca="1" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" ca="1" si="13"/>
+        <v>75</v>
+      </c>
+      <c r="AW13">
+        <v>8</v>
+      </c>
+      <c r="AX13">
+        <v>9</v>
+      </c>
+      <c r="AY13">
+        <v>5</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" ca="1" si="14"/>
+        <v>75</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" ca="1" si="20"/>
+        <v>83</v>
+      </c>
+      <c r="BC13">
+        <v>8</v>
+      </c>
+      <c r="BD13">
+        <v>9</v>
+      </c>
+      <c r="BE13">
+        <v>5</v>
+      </c>
+      <c r="BF13">
+        <f t="shared" ca="1" si="16"/>
+        <v>83</v>
+      </c>
+      <c r="BG13">
+        <f t="shared" ca="1" si="17"/>
+        <v>91</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9</v>
       </c>
@@ -1184,11 +2292,11 @@
       <c r="C14">
         <v>8</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>19</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v>27</v>
       </c>
       <c r="G14">
@@ -1242,8 +2350,110 @@
         <f t="shared" ca="1" si="5"/>
         <v>42</v>
       </c>
+      <c r="Y14">
+        <v>9</v>
+      </c>
+      <c r="Z14">
+        <v>10</v>
+      </c>
+      <c r="AA14">
+        <v>8</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" ca="1" si="6"/>
+        <v>42</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" ca="1" si="7"/>
+        <v>51</v>
+      </c>
+      <c r="AE14">
+        <v>9</v>
+      </c>
+      <c r="AF14">
+        <v>10</v>
+      </c>
+      <c r="AG14">
+        <v>8</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" ca="1" si="8"/>
+        <v>51</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" ca="1" si="19"/>
+        <v>56</v>
+      </c>
+      <c r="AK14">
+        <v>9</v>
+      </c>
+      <c r="AL14">
+        <v>10</v>
+      </c>
+      <c r="AM14">
+        <v>8</v>
+      </c>
+      <c r="AN14">
+        <f t="shared" ca="1" si="10"/>
+        <v>56</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" ca="1" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="AQ14">
+        <v>9</v>
+      </c>
+      <c r="AR14">
+        <v>10</v>
+      </c>
+      <c r="AS14">
+        <v>8</v>
+      </c>
+      <c r="AT14">
+        <f t="shared" ca="1" si="12"/>
+        <v>62</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" ca="1" si="13"/>
+        <v>67</v>
+      </c>
+      <c r="AW14">
+        <v>9</v>
+      </c>
+      <c r="AX14">
+        <v>10</v>
+      </c>
+      <c r="AY14">
+        <v>8</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" ca="1" si="14"/>
+        <v>67</v>
+      </c>
+      <c r="BA14">
+        <f t="shared" ca="1" si="20"/>
+        <v>75</v>
+      </c>
+      <c r="BC14">
+        <v>9</v>
+      </c>
+      <c r="BD14">
+        <v>10</v>
+      </c>
+      <c r="BE14">
+        <v>8</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" ca="1" si="16"/>
+        <v>75</v>
+      </c>
+      <c r="BG14">
+        <f t="shared" ca="1" si="17"/>
+        <v>83</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1253,11 +2463,11 @@
       <c r="C15">
         <v>8</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>11</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v>19</v>
       </c>
       <c r="G15">
@@ -1311,8 +2521,110 @@
         <f t="shared" ca="1" si="5"/>
         <v>34</v>
       </c>
+      <c r="Y15">
+        <v>10</v>
+      </c>
+      <c r="Z15">
+        <v>11</v>
+      </c>
+      <c r="AA15">
+        <v>8</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" ca="1" si="6"/>
+        <v>34</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" ca="1" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="AE15">
+        <v>10</v>
+      </c>
+      <c r="AF15">
+        <v>11</v>
+      </c>
+      <c r="AG15">
+        <v>8</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" ca="1" si="8"/>
+        <v>43</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" ca="1" si="19"/>
+        <v>48</v>
+      </c>
+      <c r="AK15">
+        <v>10</v>
+      </c>
+      <c r="AL15">
+        <v>11</v>
+      </c>
+      <c r="AM15">
+        <v>8</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" ca="1" si="10"/>
+        <v>48</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" ca="1" si="11"/>
+        <v>54</v>
+      </c>
+      <c r="AQ15">
+        <v>10</v>
+      </c>
+      <c r="AR15">
+        <v>11</v>
+      </c>
+      <c r="AS15">
+        <v>8</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" ca="1" si="12"/>
+        <v>54</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" ca="1" si="13"/>
+        <v>59</v>
+      </c>
+      <c r="AW15">
+        <v>10</v>
+      </c>
+      <c r="AX15">
+        <v>11</v>
+      </c>
+      <c r="AY15">
+        <v>8</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" ca="1" si="14"/>
+        <v>59</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" ca="1" si="20"/>
+        <v>67</v>
+      </c>
+      <c r="BC15">
+        <v>10</v>
+      </c>
+      <c r="BD15">
+        <v>11</v>
+      </c>
+      <c r="BE15">
+        <v>8</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" ca="1" si="16"/>
+        <v>67</v>
+      </c>
+      <c r="BG15">
+        <f t="shared" ca="1" si="17"/>
+        <v>75</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>11</v>
       </c>
@@ -1322,11 +2634,11 @@
       <c r="C16">
         <v>5</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>6</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v>14</v>
       </c>
       <c r="G16">
@@ -1380,8 +2692,110 @@
         <f t="shared" ca="1" si="5"/>
         <v>29</v>
       </c>
+      <c r="Y16">
+        <v>11</v>
+      </c>
+      <c r="Z16">
+        <v>12</v>
+      </c>
+      <c r="AA16">
+        <v>5</v>
+      </c>
+      <c r="AB16">
+        <f t="shared" ca="1" si="6"/>
+        <v>29</v>
+      </c>
+      <c r="AC16">
+        <f t="shared" ca="1" si="7"/>
+        <v>38</v>
+      </c>
+      <c r="AE16">
+        <v>11</v>
+      </c>
+      <c r="AF16">
+        <v>12</v>
+      </c>
+      <c r="AG16">
+        <v>5</v>
+      </c>
+      <c r="AH16">
+        <f t="shared" ca="1" si="8"/>
+        <v>38</v>
+      </c>
+      <c r="AI16">
+        <f t="shared" ca="1" si="19"/>
+        <v>43</v>
+      </c>
+      <c r="AK16">
+        <v>11</v>
+      </c>
+      <c r="AL16">
+        <v>12</v>
+      </c>
+      <c r="AM16">
+        <v>5</v>
+      </c>
+      <c r="AN16">
+        <f t="shared" ca="1" si="10"/>
+        <v>43</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" ca="1" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="AQ16">
+        <v>11</v>
+      </c>
+      <c r="AR16">
+        <v>12</v>
+      </c>
+      <c r="AS16">
+        <v>5</v>
+      </c>
+      <c r="AT16">
+        <f t="shared" ca="1" si="12"/>
+        <v>49</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" ca="1" si="13"/>
+        <v>54</v>
+      </c>
+      <c r="AW16">
+        <v>11</v>
+      </c>
+      <c r="AX16">
+        <v>12</v>
+      </c>
+      <c r="AY16">
+        <v>5</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" ca="1" si="14"/>
+        <v>54</v>
+      </c>
+      <c r="BA16">
+        <f t="shared" ca="1" si="20"/>
+        <v>62</v>
+      </c>
+      <c r="BC16">
+        <v>11</v>
+      </c>
+      <c r="BD16">
+        <v>12</v>
+      </c>
+      <c r="BE16">
+        <v>5</v>
+      </c>
+      <c r="BF16">
+        <f t="shared" ca="1" si="16"/>
+        <v>62</v>
+      </c>
+      <c r="BG16">
+        <f t="shared" ca="1" si="17"/>
+        <v>70</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12</v>
       </c>
@@ -1391,11 +2805,11 @@
       <c r="C17">
         <v>5</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>1</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v>9</v>
       </c>
       <c r="G17">
@@ -1449,8 +2863,110 @@
         <f t="shared" ca="1" si="5"/>
         <v>24</v>
       </c>
+      <c r="Y17">
+        <v>12</v>
+      </c>
+      <c r="Z17">
+        <v>13</v>
+      </c>
+      <c r="AA17">
+        <v>5</v>
+      </c>
+      <c r="AB17">
+        <f t="shared" ca="1" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="AC17">
+        <f t="shared" ca="1" si="7"/>
+        <v>33</v>
+      </c>
+      <c r="AE17">
+        <v>12</v>
+      </c>
+      <c r="AF17">
+        <v>13</v>
+      </c>
+      <c r="AG17">
+        <v>5</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" ca="1" si="8"/>
+        <v>33</v>
+      </c>
+      <c r="AI17">
+        <f t="shared" ca="1" si="19"/>
+        <v>38</v>
+      </c>
+      <c r="AK17">
+        <v>12</v>
+      </c>
+      <c r="AL17">
+        <v>13</v>
+      </c>
+      <c r="AM17">
+        <v>5</v>
+      </c>
+      <c r="AN17">
+        <f t="shared" ca="1" si="10"/>
+        <v>38</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" ca="1" si="11"/>
+        <v>44</v>
+      </c>
+      <c r="AQ17">
+        <v>12</v>
+      </c>
+      <c r="AR17">
+        <v>13</v>
+      </c>
+      <c r="AS17">
+        <v>5</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" ca="1" si="12"/>
+        <v>44</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" ca="1" si="13"/>
+        <v>49</v>
+      </c>
+      <c r="AW17">
+        <v>12</v>
+      </c>
+      <c r="AX17">
+        <v>13</v>
+      </c>
+      <c r="AY17">
+        <v>5</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" ca="1" si="14"/>
+        <v>49</v>
+      </c>
+      <c r="BA17">
+        <f t="shared" ca="1" si="20"/>
+        <v>57</v>
+      </c>
+      <c r="BC17">
+        <v>12</v>
+      </c>
+      <c r="BD17">
+        <v>13</v>
+      </c>
+      <c r="BE17">
+        <v>5</v>
+      </c>
+      <c r="BF17">
+        <f t="shared" ca="1" si="16"/>
+        <v>57</v>
+      </c>
+      <c r="BG17">
+        <f t="shared" ca="1" si="17"/>
+        <v>65</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>13</v>
       </c>
@@ -1460,11 +2976,11 @@
       <c r="C18">
         <v>5</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>-4</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v>4</v>
       </c>
       <c r="G18">
@@ -1518,8 +3034,110 @@
         <f t="shared" ca="1" si="5"/>
         <v>19</v>
       </c>
+      <c r="Y18">
+        <v>13</v>
+      </c>
+      <c r="Z18">
+        <v>14</v>
+      </c>
+      <c r="AA18">
+        <v>5</v>
+      </c>
+      <c r="AB18">
+        <f t="shared" ca="1" si="6"/>
+        <v>19</v>
+      </c>
+      <c r="AC18">
+        <f t="shared" ca="1" si="7"/>
+        <v>28</v>
+      </c>
+      <c r="AE18">
+        <v>13</v>
+      </c>
+      <c r="AF18">
+        <v>14</v>
+      </c>
+      <c r="AG18">
+        <v>5</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" ca="1" si="8"/>
+        <v>28</v>
+      </c>
+      <c r="AI18">
+        <f t="shared" ca="1" si="19"/>
+        <v>33</v>
+      </c>
+      <c r="AK18">
+        <v>13</v>
+      </c>
+      <c r="AL18">
+        <v>14</v>
+      </c>
+      <c r="AM18">
+        <v>5</v>
+      </c>
+      <c r="AN18">
+        <f t="shared" ca="1" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" ca="1" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="AQ18">
+        <v>13</v>
+      </c>
+      <c r="AR18">
+        <v>14</v>
+      </c>
+      <c r="AS18">
+        <v>5</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" ca="1" si="12"/>
+        <v>39</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" ca="1" si="13"/>
+        <v>44</v>
+      </c>
+      <c r="AW18">
+        <v>13</v>
+      </c>
+      <c r="AX18">
+        <v>14</v>
+      </c>
+      <c r="AY18">
+        <v>5</v>
+      </c>
+      <c r="AZ18">
+        <f t="shared" ca="1" si="14"/>
+        <v>44</v>
+      </c>
+      <c r="BA18">
+        <f t="shared" ca="1" si="20"/>
+        <v>52</v>
+      </c>
+      <c r="BC18">
+        <v>13</v>
+      </c>
+      <c r="BD18">
+        <v>14</v>
+      </c>
+      <c r="BE18">
+        <v>5</v>
+      </c>
+      <c r="BF18">
+        <f t="shared" ca="1" si="16"/>
+        <v>52</v>
+      </c>
+      <c r="BG18">
+        <f t="shared" ca="1" si="17"/>
+        <v>60</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>14</v>
       </c>
@@ -1529,11 +3147,11 @@
       <c r="C19">
         <v>9</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>-13</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v>-5</v>
       </c>
       <c r="G19">
@@ -1587,8 +3205,110 @@
         <f t="shared" ca="1" si="5"/>
         <v>10</v>
       </c>
+      <c r="Y19">
+        <v>14</v>
+      </c>
+      <c r="Z19">
+        <v>15</v>
+      </c>
+      <c r="AA19">
+        <v>9</v>
+      </c>
+      <c r="AB19">
+        <f t="shared" ca="1" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="AC19">
+        <f t="shared" ca="1" si="7"/>
+        <v>19</v>
+      </c>
+      <c r="AE19">
+        <v>14</v>
+      </c>
+      <c r="AF19">
+        <v>15</v>
+      </c>
+      <c r="AG19">
+        <v>9</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" ca="1" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="AI19">
+        <f t="shared" ca="1" si="19"/>
+        <v>24</v>
+      </c>
+      <c r="AK19">
+        <v>14</v>
+      </c>
+      <c r="AL19">
+        <v>15</v>
+      </c>
+      <c r="AM19">
+        <v>9</v>
+      </c>
+      <c r="AN19">
+        <f t="shared" ca="1" si="10"/>
+        <v>24</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" ca="1" si="11"/>
+        <v>30</v>
+      </c>
+      <c r="AQ19">
+        <v>14</v>
+      </c>
+      <c r="AR19">
+        <v>15</v>
+      </c>
+      <c r="AS19">
+        <v>9</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" ca="1" si="12"/>
+        <v>30</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" ca="1" si="13"/>
+        <v>35</v>
+      </c>
+      <c r="AW19">
+        <v>14</v>
+      </c>
+      <c r="AX19">
+        <v>15</v>
+      </c>
+      <c r="AY19">
+        <v>9</v>
+      </c>
+      <c r="AZ19">
+        <f t="shared" ca="1" si="14"/>
+        <v>35</v>
+      </c>
+      <c r="BA19">
+        <f t="shared" ca="1" si="20"/>
+        <v>43</v>
+      </c>
+      <c r="BC19">
+        <v>14</v>
+      </c>
+      <c r="BD19">
+        <v>15</v>
+      </c>
+      <c r="BE19">
+        <v>9</v>
+      </c>
+      <c r="BF19">
+        <f t="shared" ca="1" si="16"/>
+        <v>43</v>
+      </c>
+      <c r="BG19">
+        <f t="shared" ca="1" si="17"/>
+        <v>51</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -1598,11 +3318,11 @@
       <c r="C20">
         <v>5</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>-18</v>
       </c>
       <c r="E20">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v>-10</v>
       </c>
       <c r="G20">
@@ -1656,8 +3376,110 @@
         <f t="shared" ca="1" si="5"/>
         <v>5</v>
       </c>
+      <c r="Y20">
+        <v>15</v>
+      </c>
+      <c r="Z20">
+        <v>16</v>
+      </c>
+      <c r="AA20">
+        <v>5</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" ca="1" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AC20">
+        <f t="shared" ca="1" si="7"/>
+        <v>14</v>
+      </c>
+      <c r="AE20">
+        <v>15</v>
+      </c>
+      <c r="AF20">
+        <v>16</v>
+      </c>
+      <c r="AG20">
+        <v>5</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" ca="1" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="AI20">
+        <f t="shared" ca="1" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="AK20">
+        <v>15</v>
+      </c>
+      <c r="AL20">
+        <v>16</v>
+      </c>
+      <c r="AM20">
+        <v>5</v>
+      </c>
+      <c r="AN20">
+        <f t="shared" ca="1" si="10"/>
+        <v>19</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" ca="1" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="AQ20">
+        <v>15</v>
+      </c>
+      <c r="AR20">
+        <v>16</v>
+      </c>
+      <c r="AS20">
+        <v>5</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" ca="1" si="12"/>
+        <v>25</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" ca="1" si="13"/>
+        <v>30</v>
+      </c>
+      <c r="AW20">
+        <v>15</v>
+      </c>
+      <c r="AX20">
+        <v>16</v>
+      </c>
+      <c r="AY20">
+        <v>5</v>
+      </c>
+      <c r="AZ20">
+        <f t="shared" ca="1" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="BA20">
+        <f t="shared" ca="1" si="20"/>
+        <v>38</v>
+      </c>
+      <c r="BC20">
+        <v>15</v>
+      </c>
+      <c r="BD20">
+        <v>16</v>
+      </c>
+      <c r="BE20">
+        <v>5</v>
+      </c>
+      <c r="BF20">
+        <f t="shared" ca="1" si="16"/>
+        <v>38</v>
+      </c>
+      <c r="BG20">
+        <f t="shared" ca="1" si="17"/>
+        <v>46</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>16</v>
       </c>
@@ -1667,11 +3489,11 @@
       <c r="C21">
         <v>6</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>-24</v>
       </c>
       <c r="E21">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v>-16</v>
       </c>
       <c r="G21">
@@ -1725,8 +3547,110 @@
         <f t="shared" ca="1" si="5"/>
         <v>-1</v>
       </c>
+      <c r="Y21">
+        <v>16</v>
+      </c>
+      <c r="Z21">
+        <v>17</v>
+      </c>
+      <c r="AA21">
+        <v>6</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" ca="1" si="6"/>
+        <v>-1</v>
+      </c>
+      <c r="AC21">
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="AE21">
+        <v>16</v>
+      </c>
+      <c r="AF21">
+        <v>17</v>
+      </c>
+      <c r="AG21">
+        <v>6</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" ca="1" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="AI21">
+        <f t="shared" ca="1" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="AK21">
+        <v>16</v>
+      </c>
+      <c r="AL21">
+        <v>17</v>
+      </c>
+      <c r="AM21">
+        <v>6</v>
+      </c>
+      <c r="AN21">
+        <f t="shared" ca="1" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" ca="1" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="AQ21">
+        <v>16</v>
+      </c>
+      <c r="AR21">
+        <v>17</v>
+      </c>
+      <c r="AS21">
+        <v>6</v>
+      </c>
+      <c r="AT21">
+        <f t="shared" ca="1" si="12"/>
+        <v>19</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" ca="1" si="13"/>
+        <v>24</v>
+      </c>
+      <c r="AW21">
+        <v>16</v>
+      </c>
+      <c r="AX21">
+        <v>17</v>
+      </c>
+      <c r="AY21">
+        <v>6</v>
+      </c>
+      <c r="AZ21">
+        <f t="shared" ca="1" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="BA21">
+        <f t="shared" ca="1" si="20"/>
+        <v>32</v>
+      </c>
+      <c r="BC21">
+        <v>16</v>
+      </c>
+      <c r="BD21">
+        <v>17</v>
+      </c>
+      <c r="BE21">
+        <v>6</v>
+      </c>
+      <c r="BF21">
+        <f t="shared" ca="1" si="16"/>
+        <v>32</v>
+      </c>
+      <c r="BG21">
+        <f t="shared" ca="1" si="17"/>
+        <v>40</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -1736,11 +3660,11 @@
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>-29</v>
       </c>
       <c r="E22">
-        <f t="shared" ca="1" si="6"/>
+        <f t="shared" ca="1" si="18"/>
         <v>-21</v>
       </c>
       <c r="G22">
@@ -1794,8 +3718,110 @@
         <f t="shared" ca="1" si="5"/>
         <v>-6</v>
       </c>
+      <c r="Y22">
+        <v>17</v>
+      </c>
+      <c r="Z22">
+        <v>18</v>
+      </c>
+      <c r="AA22">
+        <v>5</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" ca="1" si="6"/>
+        <v>-6</v>
+      </c>
+      <c r="AC22">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AE22">
+        <v>17</v>
+      </c>
+      <c r="AF22">
+        <v>18</v>
+      </c>
+      <c r="AG22">
+        <v>5</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" ca="1" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="AI22">
+        <f t="shared" ca="1" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="AK22">
+        <v>17</v>
+      </c>
+      <c r="AL22">
+        <v>18</v>
+      </c>
+      <c r="AM22">
+        <v>5</v>
+      </c>
+      <c r="AN22">
+        <f t="shared" ca="1" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" ca="1" si="11"/>
+        <v>14</v>
+      </c>
+      <c r="AQ22">
+        <v>17</v>
+      </c>
+      <c r="AR22">
+        <v>18</v>
+      </c>
+      <c r="AS22">
+        <v>5</v>
+      </c>
+      <c r="AT22">
+        <f t="shared" ca="1" si="12"/>
+        <v>14</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" ca="1" si="13"/>
+        <v>19</v>
+      </c>
+      <c r="AW22">
+        <v>17</v>
+      </c>
+      <c r="AX22">
+        <v>18</v>
+      </c>
+      <c r="AY22">
+        <v>5</v>
+      </c>
+      <c r="AZ22">
+        <f t="shared" ca="1" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="BA22">
+        <f t="shared" ca="1" si="20"/>
+        <v>27</v>
+      </c>
+      <c r="BC22">
+        <v>17</v>
+      </c>
+      <c r="BD22">
+        <v>18</v>
+      </c>
+      <c r="BE22">
+        <v>5</v>
+      </c>
+      <c r="BF22">
+        <f t="shared" ca="1" si="16"/>
+        <v>27</v>
+      </c>
+      <c r="BG22">
+        <f t="shared" ca="1" si="17"/>
+        <v>35</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>5</v>
       </c>

--- a/test/move_axle_loc.xlsx
+++ b/test/move_axle_loc.xlsx
@@ -53,7 +53,7 @@
     <t>(ltr or rtl</t>
   </si>
   <si>
-    <t>ltr</t>
+    <t>rtl</t>
   </si>
 </sst>
 </file>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W5" sqref="W5:W22"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AO32" sqref="AO32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,7 +505,7 @@
       </c>
       <c r="I3" s="1" t="str">
         <f>C3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="J3" t="s">
         <v>8</v>
@@ -515,7 +515,7 @@
       </c>
       <c r="O3" s="1" t="str">
         <f>I3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="P3" t="s">
         <v>8</v>
@@ -525,7 +525,7 @@
       </c>
       <c r="U3" s="1" t="str">
         <f>O3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="V3" t="s">
         <v>8</v>
@@ -535,7 +535,7 @@
       </c>
       <c r="AA3" s="1" t="str">
         <f>U3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="AB3" t="s">
         <v>8</v>
@@ -545,7 +545,7 @@
       </c>
       <c r="AG3" s="1" t="str">
         <f>AA3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="AH3" t="s">
         <v>8</v>
@@ -555,7 +555,7 @@
       </c>
       <c r="AM3" s="1" t="str">
         <f>AG3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="AN3" t="s">
         <v>8</v>
@@ -565,7 +565,7 @@
       </c>
       <c r="AS3" s="1" t="str">
         <f>AM3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="AT3" t="s">
         <v>8</v>
@@ -575,7 +575,7 @@
       </c>
       <c r="AY3" s="1" t="str">
         <f>AS3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="AZ3" t="s">
         <v>8</v>
@@ -585,7 +585,7 @@
       </c>
       <c r="BE3" s="1" t="str">
         <f>AY3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="BF3" t="s">
         <v>8</v>
@@ -758,7 +758,7 @@
       </c>
       <c r="E5">
         <f ca="1">IF(C$3="ltr",D5+INDIRECT(_xlfn.CONCAT("C",C$2-1+5)),D5-INDIRECT(_xlfn.CONCAT("C",C$2-1+5)))</f>
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -771,11 +771,11 @@
       </c>
       <c r="J5">
         <f ca="1">E5</f>
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="K5">
         <f ca="1">IF(I$3="ltr",J5+INDIRECT(_xlfn.CONCAT("C",I$2-1+5)),J5-INDIRECT(_xlfn.CONCAT("C",I$2-1+5)))</f>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -788,11 +788,11 @@
       </c>
       <c r="P5">
         <f ca="1">K5</f>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="Q5">
         <f ca="1">IF(O$3="ltr",P5+INDIRECT(_xlfn.CONCAT("C",O$2-1+5)),P5-INDIRECT(_xlfn.CONCAT("C",O$2-1+5)))</f>
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -805,11 +805,11 @@
       </c>
       <c r="V5">
         <f ca="1">Q5</f>
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="W5">
         <f ca="1">IF(U$3="ltr",V5+INDIRECT(_xlfn.CONCAT("C",U$2-1+5)),V5-INDIRECT(_xlfn.CONCAT("C",U$2-1+5)))</f>
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -822,11 +822,11 @@
       </c>
       <c r="AB5">
         <f ca="1">W5</f>
-        <v>98</v>
+        <v>52</v>
       </c>
       <c r="AC5">
         <f ca="1">IF(AA$3="ltr",AB5+INDIRECT(_xlfn.CONCAT("C",AA$2-1+5)),AB5-INDIRECT(_xlfn.CONCAT("C",AA$2-1+5)))</f>
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="AE5">
         <v>0</v>
@@ -839,11 +839,11 @@
       </c>
       <c r="AH5">
         <f ca="1">AC5</f>
-        <v>107</v>
+        <v>43</v>
       </c>
       <c r="AI5">
         <f ca="1">IF(AG$3="ltr",AH5+INDIRECT(_xlfn.CONCAT("C",AG$2-1+5)),AH5-INDIRECT(_xlfn.CONCAT("C",AG$2-1+5)))</f>
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AK5">
         <v>0</v>
@@ -856,11 +856,11 @@
       </c>
       <c r="AN5">
         <f ca="1">AI5</f>
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="AO5">
         <f ca="1">IF(AM$3="ltr",AN5+INDIRECT(_xlfn.CONCAT("C",AM$2-1+5)),AN5-INDIRECT(_xlfn.CONCAT("C",AM$2-1+5)))</f>
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -873,11 +873,11 @@
       </c>
       <c r="AT5">
         <f ca="1">AO5</f>
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="AU5">
         <f ca="1">IF(AS$3="ltr",AT5+INDIRECT(_xlfn.CONCAT("C",AS$2-1+5)),AT5-INDIRECT(_xlfn.CONCAT("C",AS$2-1+5)))</f>
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="AW5">
         <v>0</v>
@@ -890,11 +890,11 @@
       </c>
       <c r="AZ5">
         <f ca="1">AU5</f>
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="BA5">
         <f ca="1">IF(AY$3="ltr",AZ5+INDIRECT(_xlfn.CONCAT("C",AY$2-1+5)),AZ5-INDIRECT(_xlfn.CONCAT("C",AY$2-1+5)))</f>
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="BC5">
         <v>0</v>
@@ -907,11 +907,11 @@
       </c>
       <c r="BF5">
         <f ca="1">BA5</f>
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="BG5">
         <f ca="1">IF(BE$3="ltr",BF5+INDIRECT(_xlfn.CONCAT("C",BE$2-1+5)),BF5-INDIRECT(_xlfn.CONCAT("C",BE$2-1+5)))</f>
-        <v>139</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
@@ -925,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="E6">
         <f ca="1">IF(C$3="ltr",D6+INDIRECT(_xlfn.CONCAT("C",C$2-1+5)),D6-INDIRECT(_xlfn.CONCAT("C",C$2-1+5)))</f>
@@ -946,7 +946,7 @@
       </c>
       <c r="K6">
         <f t="shared" ref="K6:K22" ca="1" si="1">IF(I$3="ltr",J6+INDIRECT(_xlfn.CONCAT("C",I$2-1+5)),J6-INDIRECT(_xlfn.CONCAT("C",I$2-1+5)))</f>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M6">
         <v>1</v>
@@ -959,11 +959,11 @@
       </c>
       <c r="P6">
         <f t="shared" ref="P6:P22" ca="1" si="2">K6</f>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Q6">
         <f t="shared" ref="Q6:Q22" ca="1" si="3">IF(O$3="ltr",P6+INDIRECT(_xlfn.CONCAT("C",O$2-1+5)),P6-INDIRECT(_xlfn.CONCAT("C",O$2-1+5)))</f>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -976,11 +976,11 @@
       </c>
       <c r="V6">
         <f t="shared" ref="V6:V22" ca="1" si="4">Q6</f>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="W6">
         <f t="shared" ref="W6:W22" ca="1" si="5">IF(U$3="ltr",V6+INDIRECT(_xlfn.CONCAT("C",U$2-1+5)),V6-INDIRECT(_xlfn.CONCAT("C",U$2-1+5)))</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Y6">
         <v>1</v>
@@ -993,11 +993,11 @@
       </c>
       <c r="AB6">
         <f t="shared" ref="AB6:AB22" ca="1" si="6">W6</f>
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AC6">
         <f t="shared" ref="AC6:AC22" ca="1" si="7">IF(AA$3="ltr",AB6+INDIRECT(_xlfn.CONCAT("C",AA$2-1+5)),AB6-INDIRECT(_xlfn.CONCAT("C",AA$2-1+5)))</f>
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="AE6">
         <v>1</v>
@@ -1010,11 +1010,11 @@
       </c>
       <c r="AH6">
         <f t="shared" ref="AH6:AH22" ca="1" si="8">AC6</f>
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="AI6">
         <f t="shared" ref="AI6:AI9" ca="1" si="9">IF(AG$3="ltr",AH6+INDIRECT(_xlfn.CONCAT("C",AG$2-1+5)),AH6-INDIRECT(_xlfn.CONCAT("C",AG$2-1+5)))</f>
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="AK6">
         <v>1</v>
@@ -1027,11 +1027,11 @@
       </c>
       <c r="AN6">
         <f t="shared" ref="AN6:AN22" ca="1" si="10">AI6</f>
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="AO6">
         <f t="shared" ref="AO6:AO22" ca="1" si="11">IF(AM$3="ltr",AN6+INDIRECT(_xlfn.CONCAT("C",AM$2-1+5)),AN6-INDIRECT(_xlfn.CONCAT("C",AM$2-1+5)))</f>
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -1044,11 +1044,11 @@
       </c>
       <c r="AT6">
         <f t="shared" ref="AT6:AT22" ca="1" si="12">AO6</f>
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AU6">
         <f t="shared" ref="AU6:AU22" ca="1" si="13">IF(AS$3="ltr",AT6+INDIRECT(_xlfn.CONCAT("C",AS$2-1+5)),AT6-INDIRECT(_xlfn.CONCAT("C",AS$2-1+5)))</f>
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="AW6">
         <v>1</v>
@@ -1061,11 +1061,11 @@
       </c>
       <c r="AZ6">
         <f t="shared" ref="AZ6:AZ22" ca="1" si="14">AU6</f>
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="BA6">
         <f t="shared" ref="BA6:BA9" ca="1" si="15">IF(AY$3="ltr",AZ6+INDIRECT(_xlfn.CONCAT("C",AY$2-1+5)),AZ6-INDIRECT(_xlfn.CONCAT("C",AY$2-1+5)))</f>
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="BC6">
         <v>1</v>
@@ -1078,11 +1078,11 @@
       </c>
       <c r="BF6">
         <f t="shared" ref="BF6:BF22" ca="1" si="16">BA6</f>
-        <v>123</v>
+        <v>27</v>
       </c>
       <c r="BG6">
         <f t="shared" ref="BG6:BG22" ca="1" si="17">IF(BE$3="ltr",BF6+INDIRECT(_xlfn.CONCAT("C",BE$2-1+5)),BF6-INDIRECT(_xlfn.CONCAT("C",BE$2-1+5)))</f>
-        <v>131</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -1096,11 +1096,11 @@
         <v>5</v>
       </c>
       <c r="D7" s="2">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E22" ca="1" si="18">IF(C$3="ltr",D7+INDIRECT(_xlfn.CONCAT("C",C$2-1+5)),D7-INDIRECT(_xlfn.CONCAT("C",C$2-1+5)))</f>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -1113,7 +1113,7 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="1"/>
@@ -1134,7 +1134,7 @@
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="S7">
         <v>2</v>
@@ -1147,11 +1147,11 @@
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="W7">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="Y7">
         <v>2</v>
@@ -1164,11 +1164,11 @@
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AC7">
         <f t="shared" ca="1" si="7"/>
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="AE7">
         <v>2</v>
@@ -1181,11 +1181,11 @@
       </c>
       <c r="AH7">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="AI7">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="AK7">
         <v>2</v>
@@ -1198,11 +1198,11 @@
       </c>
       <c r="AN7">
         <f t="shared" ca="1" si="10"/>
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="AO7">
         <f t="shared" ca="1" si="11"/>
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -1215,11 +1215,11 @@
       </c>
       <c r="AT7">
         <f t="shared" ca="1" si="12"/>
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AU7">
         <f t="shared" ca="1" si="13"/>
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="AW7">
         <v>2</v>
@@ -1232,11 +1232,11 @@
       </c>
       <c r="AZ7">
         <f t="shared" ca="1" si="14"/>
-        <v>110</v>
+        <v>40</v>
       </c>
       <c r="BA7">
         <f t="shared" ca="1" si="15"/>
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="BC7">
         <v>2</v>
@@ -1249,11 +1249,11 @@
       </c>
       <c r="BF7">
         <f t="shared" ca="1" si="16"/>
-        <v>118</v>
+        <v>32</v>
       </c>
       <c r="BG7">
         <f t="shared" ca="1" si="17"/>
-        <v>126</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -1267,11 +1267,11 @@
         <v>5</v>
       </c>
       <c r="D8" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="18"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G8">
         <v>3</v>
@@ -1284,11 +1284,11 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M8">
         <v>3</v>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="3"/>
@@ -1322,7 +1322,7 @@
       </c>
       <c r="W8">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Y8">
         <v>3</v>
@@ -1335,11 +1335,11 @@
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AC8">
         <f t="shared" ca="1" si="7"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="AE8">
         <v>3</v>
@@ -1352,11 +1352,11 @@
       </c>
       <c r="AH8">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="AI8">
         <f t="shared" ca="1" si="9"/>
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="AK8">
         <v>3</v>
@@ -1369,11 +1369,11 @@
       </c>
       <c r="AN8">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="AO8">
         <f t="shared" ca="1" si="11"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AQ8">
         <v>3</v>
@@ -1386,11 +1386,11 @@
       </c>
       <c r="AT8">
         <f t="shared" ca="1" si="12"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AU8">
         <f t="shared" ca="1" si="13"/>
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="AW8">
         <v>3</v>
@@ -1403,11 +1403,11 @@
       </c>
       <c r="AZ8">
         <f t="shared" ca="1" si="14"/>
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="BA8">
         <f t="shared" ca="1" si="15"/>
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="BC8">
         <v>3</v>
@@ -1420,11 +1420,11 @@
       </c>
       <c r="BF8">
         <f t="shared" ca="1" si="16"/>
-        <v>113</v>
+        <v>37</v>
       </c>
       <c r="BG8">
         <f t="shared" ca="1" si="17"/>
-        <v>121</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
@@ -1438,11 +1438,11 @@
         <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="18"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G9">
         <v>4</v>
@@ -1455,11 +1455,11 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="M9">
         <v>4</v>
@@ -1472,11 +1472,11 @@
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="S9">
         <v>4</v>
@@ -1489,7 +1489,7 @@
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="W9">
         <f t="shared" ca="1" si="5"/>
@@ -1510,7 +1510,7 @@
       </c>
       <c r="AC9">
         <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="AE9">
         <v>4</v>
@@ -1523,11 +1523,11 @@
       </c>
       <c r="AH9">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="AI9">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="AK9">
         <v>4</v>
@@ -1540,11 +1540,11 @@
       </c>
       <c r="AN9">
         <f t="shared" ca="1" si="10"/>
-        <v>89</v>
+        <v>61</v>
       </c>
       <c r="AO9">
         <f t="shared" ca="1" si="11"/>
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AQ9">
         <v>4</v>
@@ -1557,11 +1557,11 @@
       </c>
       <c r="AT9">
         <f t="shared" ca="1" si="12"/>
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="AU9">
         <f t="shared" ca="1" si="13"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AW9">
         <v>4</v>
@@ -1574,11 +1574,11 @@
       </c>
       <c r="AZ9">
         <f t="shared" ca="1" si="14"/>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BA9">
         <f t="shared" ca="1" si="15"/>
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="BC9">
         <v>4</v>
@@ -1591,11 +1591,11 @@
       </c>
       <c r="BF9">
         <f t="shared" ca="1" si="16"/>
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="BG9">
         <f t="shared" ca="1" si="17"/>
-        <v>116</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
@@ -1609,11 +1609,11 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="18"/>
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="G10">
         <v>5</v>
@@ -1626,11 +1626,11 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="1"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="M10">
         <v>5</v>
@@ -1643,11 +1643,11 @@
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="Q10">
         <f ca="1">IF(O$3="ltr",P10+INDIRECT(_xlfn.CONCAT("C",O$2-1+5)),P10-INDIRECT(_xlfn.CONCAT("C",O$2-1+5)))</f>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="S10">
         <v>5</v>
@@ -1660,11 +1660,11 @@
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="W10">
         <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="Y10">
         <v>5</v>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="AC10">
         <f t="shared" ca="1" si="7"/>
@@ -1698,7 +1698,7 @@
       </c>
       <c r="AI10">
         <f ca="1">IF(AG$3="ltr",AH10+INDIRECT(_xlfn.CONCAT("C",AG$2-1+5)),AH10-INDIRECT(_xlfn.CONCAT("C",AG$2-1+5)))</f>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AK10">
         <v>5</v>
@@ -1711,11 +1711,11 @@
       </c>
       <c r="AN10">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AO10">
         <f t="shared" ca="1" si="11"/>
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AQ10">
         <v>5</v>
@@ -1728,11 +1728,11 @@
       </c>
       <c r="AT10">
         <f t="shared" ca="1" si="12"/>
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AU10">
         <f t="shared" ca="1" si="13"/>
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="AW10">
         <v>5</v>
@@ -1745,11 +1745,11 @@
       </c>
       <c r="AZ10">
         <f t="shared" ca="1" si="14"/>
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="BA10">
         <f ca="1">IF(AY$3="ltr",AZ10+INDIRECT(_xlfn.CONCAT("C",AY$2-1+5)),AZ10-INDIRECT(_xlfn.CONCAT("C",AY$2-1+5)))</f>
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="BC10">
         <v>5</v>
@@ -1762,11 +1762,11 @@
       </c>
       <c r="BF10">
         <f t="shared" ca="1" si="16"/>
-        <v>99</v>
+        <v>51</v>
       </c>
       <c r="BG10">
         <f t="shared" ca="1" si="17"/>
-        <v>107</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
@@ -1780,11 +1780,11 @@
         <v>5</v>
       </c>
       <c r="D11" s="2">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="G11">
         <v>6</v>
@@ -1797,11 +1797,11 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="M11">
         <v>6</v>
@@ -1814,11 +1814,11 @@
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="S11">
         <v>6</v>
@@ -1831,11 +1831,11 @@
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="W11">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="Y11">
         <v>6</v>
@@ -1848,11 +1848,11 @@
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="AC11">
         <f t="shared" ca="1" si="7"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AE11">
         <v>6</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="AH11">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI11">
         <f t="shared" ref="AI11:AI22" ca="1" si="19">IF(AG$3="ltr",AH11+INDIRECT(_xlfn.CONCAT("C",AG$2-1+5)),AH11-INDIRECT(_xlfn.CONCAT("C",AG$2-1+5)))</f>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="AO11">
         <f t="shared" ca="1" si="11"/>
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="AQ11">
         <v>6</v>
@@ -1899,11 +1899,11 @@
       </c>
       <c r="AT11">
         <f t="shared" ca="1" si="12"/>
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="AU11">
         <f t="shared" ca="1" si="13"/>
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="AW11">
         <v>6</v>
@@ -1916,11 +1916,11 @@
       </c>
       <c r="AZ11">
         <f t="shared" ca="1" si="14"/>
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="BA11">
         <f t="shared" ref="BA11:BA22" ca="1" si="20">IF(AY$3="ltr",AZ11+INDIRECT(_xlfn.CONCAT("C",AY$2-1+5)),AZ11-INDIRECT(_xlfn.CONCAT("C",AY$2-1+5)))</f>
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="BC11">
         <v>6</v>
@@ -1933,11 +1933,11 @@
       </c>
       <c r="BF11">
         <f t="shared" ca="1" si="16"/>
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="BG11">
         <f t="shared" ca="1" si="17"/>
-        <v>102</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
@@ -1951,11 +1951,11 @@
         <v>6</v>
       </c>
       <c r="D12" s="2">
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="18"/>
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="G12">
         <v>7</v>
@@ -1968,11 +1968,11 @@
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="1"/>
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="M12">
         <v>7</v>
@@ -1985,11 +1985,11 @@
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="3"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S12">
         <v>7</v>
@@ -2002,11 +2002,11 @@
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W12">
         <f t="shared" ca="1" si="5"/>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="Y12">
         <v>7</v>
@@ -2019,11 +2019,11 @@
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="AC12">
         <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="AE12">
         <v>7</v>
@@ -2036,11 +2036,11 @@
       </c>
       <c r="AH12">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="AI12">
         <f t="shared" ca="1" si="19"/>
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="AK12">
         <v>7</v>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="AN12">
         <f t="shared" ca="1" si="10"/>
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="AO12">
         <f t="shared" ca="1" si="11"/>
@@ -2074,7 +2074,7 @@
       </c>
       <c r="AU12">
         <f t="shared" ca="1" si="13"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AW12">
         <v>7</v>
@@ -2087,11 +2087,11 @@
       </c>
       <c r="AZ12">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BA12">
         <f t="shared" ca="1" si="20"/>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="BC12">
         <v>7</v>
@@ -2104,11 +2104,11 @@
       </c>
       <c r="BF12">
         <f t="shared" ca="1" si="16"/>
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="BG12">
         <f t="shared" ca="1" si="17"/>
-        <v>96</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
@@ -2122,11 +2122,11 @@
         <v>5</v>
       </c>
       <c r="D13" s="2">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="18"/>
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="G13">
         <v>8</v>
@@ -2139,11 +2139,11 @@
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="M13">
         <v>8</v>
@@ -2156,11 +2156,11 @@
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>110</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="S13">
         <v>8</v>
@@ -2173,11 +2173,11 @@
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="W13">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Y13">
         <v>8</v>
@@ -2190,11 +2190,11 @@
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AC13">
         <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="AE13">
         <v>8</v>
@@ -2207,11 +2207,11 @@
       </c>
       <c r="AH13">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="AI13">
         <f t="shared" ca="1" si="19"/>
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="AK13">
         <v>8</v>
@@ -2224,11 +2224,11 @@
       </c>
       <c r="AN13">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="AO13">
         <f t="shared" ca="1" si="11"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AQ13">
         <v>8</v>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="AT13">
         <f t="shared" ca="1" si="12"/>
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AU13">
         <f t="shared" ca="1" si="13"/>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="BA13">
         <f t="shared" ca="1" si="20"/>
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="BC13">
         <v>8</v>
@@ -2275,11 +2275,11 @@
       </c>
       <c r="BF13">
         <f t="shared" ca="1" si="16"/>
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="BG13">
         <f t="shared" ca="1" si="17"/>
-        <v>91</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
@@ -2293,11 +2293,11 @@
         <v>8</v>
       </c>
       <c r="D14" s="2">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="18"/>
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="G14">
         <v>9</v>
@@ -2310,11 +2310,11 @@
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="M14">
         <v>9</v>
@@ -2327,11 +2327,11 @@
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="3"/>
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="S14">
         <v>9</v>
@@ -2344,11 +2344,11 @@
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>113</v>
       </c>
       <c r="W14">
         <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="Y14">
         <v>9</v>
@@ -2361,11 +2361,11 @@
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>108</v>
       </c>
       <c r="AC14">
         <f t="shared" ca="1" si="7"/>
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="AE14">
         <v>9</v>
@@ -2378,11 +2378,11 @@
       </c>
       <c r="AH14">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="AI14">
         <f t="shared" ca="1" si="19"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="AK14">
         <v>9</v>
@@ -2395,11 +2395,11 @@
       </c>
       <c r="AN14">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="AO14">
         <f t="shared" ca="1" si="11"/>
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="AQ14">
         <v>9</v>
@@ -2412,11 +2412,11 @@
       </c>
       <c r="AT14">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="AU14">
         <f t="shared" ca="1" si="13"/>
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AW14">
         <v>9</v>
@@ -2429,7 +2429,7 @@
       </c>
       <c r="AZ14">
         <f t="shared" ca="1" si="14"/>
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="BA14">
         <f t="shared" ca="1" si="20"/>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="BG14">
         <f t="shared" ca="1" si="17"/>
-        <v>83</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
@@ -2464,11 +2464,11 @@
         <v>8</v>
       </c>
       <c r="D15" s="2">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="18"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="G15">
         <v>10</v>
@@ -2481,11 +2481,11 @@
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="1"/>
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="M15">
         <v>10</v>
@@ -2498,11 +2498,11 @@
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="3"/>
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="S15">
         <v>10</v>
@@ -2515,11 +2515,11 @@
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="W15">
         <f t="shared" ca="1" si="5"/>
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="Y15">
         <v>10</v>
@@ -2532,11 +2532,11 @@
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="AC15">
         <f t="shared" ca="1" si="7"/>
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="AE15">
         <v>10</v>
@@ -2549,11 +2549,11 @@
       </c>
       <c r="AH15">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="AI15">
         <f t="shared" ca="1" si="19"/>
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="AK15">
         <v>10</v>
@@ -2566,11 +2566,11 @@
       </c>
       <c r="AN15">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="AO15">
         <f t="shared" ca="1" si="11"/>
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="AQ15">
         <v>10</v>
@@ -2583,11 +2583,11 @@
       </c>
       <c r="AT15">
         <f t="shared" ca="1" si="12"/>
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="AU15">
         <f t="shared" ca="1" si="13"/>
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="AW15">
         <v>10</v>
@@ -2600,11 +2600,11 @@
       </c>
       <c r="AZ15">
         <f t="shared" ca="1" si="14"/>
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="BA15">
         <f t="shared" ca="1" si="20"/>
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="BC15">
         <v>10</v>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="BF15">
         <f t="shared" ca="1" si="16"/>
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="BG15">
         <f t="shared" ca="1" si="17"/>
@@ -2635,11 +2635,11 @@
         <v>5</v>
       </c>
       <c r="D16" s="2">
-        <v>6</v>
+        <v>144</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="18"/>
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="G16">
         <v>11</v>
@@ -2652,11 +2652,11 @@
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="M16">
         <v>11</v>
@@ -2669,11 +2669,11 @@
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="S16">
         <v>11</v>
@@ -2686,11 +2686,11 @@
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="W16">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="Y16">
         <v>11</v>
@@ -2703,11 +2703,11 @@
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>121</v>
       </c>
       <c r="AC16">
         <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="AE16">
         <v>11</v>
@@ -2720,11 +2720,11 @@
       </c>
       <c r="AH16">
         <f t="shared" ca="1" si="8"/>
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="AI16">
         <f t="shared" ca="1" si="19"/>
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="AK16">
         <v>11</v>
@@ -2737,11 +2737,11 @@
       </c>
       <c r="AN16">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="AO16">
         <f t="shared" ca="1" si="11"/>
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="AQ16">
         <v>11</v>
@@ -2754,11 +2754,11 @@
       </c>
       <c r="AT16">
         <f t="shared" ca="1" si="12"/>
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="AU16">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="AW16">
         <v>11</v>
@@ -2771,11 +2771,11 @@
       </c>
       <c r="AZ16">
         <f t="shared" ca="1" si="14"/>
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="BA16">
         <f t="shared" ca="1" si="20"/>
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="BC16">
         <v>11</v>
@@ -2788,11 +2788,11 @@
       </c>
       <c r="BF16">
         <f t="shared" ca="1" si="16"/>
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="BG16">
         <f t="shared" ca="1" si="17"/>
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
@@ -2806,11 +2806,11 @@
         <v>5</v>
       </c>
       <c r="D17" s="2">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="18"/>
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="G17">
         <v>12</v>
@@ -2823,11 +2823,11 @@
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="M17">
         <v>12</v>
@@ -2840,11 +2840,11 @@
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="S17">
         <v>12</v>
@@ -2857,11 +2857,11 @@
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="W17">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="Y17">
         <v>12</v>
@@ -2874,11 +2874,11 @@
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="AC17">
         <f t="shared" ca="1" si="7"/>
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="AE17">
         <v>12</v>
@@ -2891,11 +2891,11 @@
       </c>
       <c r="AH17">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="AI17">
         <f t="shared" ca="1" si="19"/>
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="AK17">
         <v>12</v>
@@ -2908,11 +2908,11 @@
       </c>
       <c r="AN17">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="AO17">
         <f t="shared" ca="1" si="11"/>
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="AQ17">
         <v>12</v>
@@ -2925,11 +2925,11 @@
       </c>
       <c r="AT17">
         <f t="shared" ca="1" si="12"/>
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="AU17">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="AW17">
         <v>12</v>
@@ -2942,11 +2942,11 @@
       </c>
       <c r="AZ17">
         <f t="shared" ca="1" si="14"/>
-        <v>49</v>
+        <v>101</v>
       </c>
       <c r="BA17">
         <f t="shared" ca="1" si="20"/>
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="BC17">
         <v>12</v>
@@ -2959,11 +2959,11 @@
       </c>
       <c r="BF17">
         <f t="shared" ca="1" si="16"/>
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="BG17">
         <f t="shared" ca="1" si="17"/>
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -2977,11 +2977,11 @@
         <v>5</v>
       </c>
       <c r="D18" s="2">
-        <v>-4</v>
+        <v>154</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="18"/>
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="G18">
         <v>13</v>
@@ -2994,11 +2994,11 @@
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>146</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="M18">
         <v>13</v>
@@ -3011,11 +3011,11 @@
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="S18">
         <v>13</v>
@@ -3028,11 +3028,11 @@
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="W18">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="Y18">
         <v>13</v>
@@ -3045,11 +3045,11 @@
       </c>
       <c r="AB18">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="AC18">
         <f t="shared" ca="1" si="7"/>
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="AE18">
         <v>13</v>
@@ -3062,11 +3062,11 @@
       </c>
       <c r="AH18">
         <f t="shared" ca="1" si="8"/>
-        <v>28</v>
+        <v>122</v>
       </c>
       <c r="AI18">
         <f t="shared" ca="1" si="19"/>
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="AK18">
         <v>13</v>
@@ -3079,11 +3079,11 @@
       </c>
       <c r="AN18">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="AO18">
         <f t="shared" ca="1" si="11"/>
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="AQ18">
         <v>13</v>
@@ -3096,11 +3096,11 @@
       </c>
       <c r="AT18">
         <f t="shared" ca="1" si="12"/>
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="AU18">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="AW18">
         <v>13</v>
@@ -3113,11 +3113,11 @@
       </c>
       <c r="AZ18">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="BA18">
         <f t="shared" ca="1" si="20"/>
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="BC18">
         <v>13</v>
@@ -3130,11 +3130,11 @@
       </c>
       <c r="BF18">
         <f t="shared" ca="1" si="16"/>
-        <v>52</v>
+        <v>98</v>
       </c>
       <c r="BG18">
         <f t="shared" ca="1" si="17"/>
-        <v>60</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
@@ -3148,11 +3148,11 @@
         <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>-13</v>
+        <v>163</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="18"/>
-        <v>-5</v>
+        <v>155</v>
       </c>
       <c r="G19">
         <v>14</v>
@@ -3165,11 +3165,11 @@
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>155</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="M19">
         <v>14</v>
@@ -3182,11 +3182,11 @@
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="S19">
         <v>14</v>
@@ -3199,11 +3199,11 @@
       </c>
       <c r="V19">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="W19">
         <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="Y19">
         <v>14</v>
@@ -3216,11 +3216,11 @@
       </c>
       <c r="AB19">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>140</v>
       </c>
       <c r="AC19">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="AE19">
         <v>14</v>
@@ -3233,11 +3233,11 @@
       </c>
       <c r="AH19">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="AI19">
         <f t="shared" ca="1" si="19"/>
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="AK19">
         <v>14</v>
@@ -3250,11 +3250,11 @@
       </c>
       <c r="AN19">
         <f t="shared" ca="1" si="10"/>
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="AO19">
         <f t="shared" ca="1" si="11"/>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AQ19">
         <v>14</v>
@@ -3267,11 +3267,11 @@
       </c>
       <c r="AT19">
         <f t="shared" ca="1" si="12"/>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AU19">
         <f t="shared" ca="1" si="13"/>
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="AW19">
         <v>14</v>
@@ -3284,11 +3284,11 @@
       </c>
       <c r="AZ19">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>115</v>
       </c>
       <c r="BA19">
         <f t="shared" ca="1" si="20"/>
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="BC19">
         <v>14</v>
@@ -3301,11 +3301,11 @@
       </c>
       <c r="BF19">
         <f t="shared" ca="1" si="16"/>
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="BG19">
         <f t="shared" ca="1" si="17"/>
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
@@ -3319,11 +3319,11 @@
         <v>5</v>
       </c>
       <c r="D20" s="2">
-        <v>-18</v>
+        <v>168</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="18"/>
-        <v>-10</v>
+        <v>160</v>
       </c>
       <c r="G20">
         <v>15</v>
@@ -3336,11 +3336,11 @@
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>160</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
+        <v>155</v>
       </c>
       <c r="M20">
         <v>15</v>
@@ -3353,11 +3353,11 @@
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="2"/>
-        <v>-5</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S20">
         <v>15</v>
@@ -3370,11 +3370,11 @@
       </c>
       <c r="V20">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="W20">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="Y20">
         <v>15</v>
@@ -3387,11 +3387,11 @@
       </c>
       <c r="AB20">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>145</v>
       </c>
       <c r="AC20">
         <f t="shared" ca="1" si="7"/>
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="AE20">
         <v>15</v>
@@ -3404,11 +3404,11 @@
       </c>
       <c r="AH20">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="AI20">
         <f t="shared" ca="1" si="19"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="AK20">
         <v>15</v>
@@ -3421,11 +3421,11 @@
       </c>
       <c r="AN20">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="AO20">
         <f t="shared" ca="1" si="11"/>
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="AQ20">
         <v>15</v>
@@ -3438,11 +3438,11 @@
       </c>
       <c r="AT20">
         <f t="shared" ca="1" si="12"/>
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="AU20">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="AW20">
         <v>15</v>
@@ -3455,11 +3455,11 @@
       </c>
       <c r="AZ20">
         <f t="shared" ca="1" si="14"/>
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="BA20">
         <f t="shared" ca="1" si="20"/>
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="BC20">
         <v>15</v>
@@ -3472,11 +3472,11 @@
       </c>
       <c r="BF20">
         <f t="shared" ca="1" si="16"/>
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="BG20">
         <f t="shared" ca="1" si="17"/>
-        <v>46</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
@@ -3490,11 +3490,11 @@
         <v>6</v>
       </c>
       <c r="D21" s="2">
-        <v>-24</v>
+        <v>174</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="18"/>
-        <v>-16</v>
+        <v>166</v>
       </c>
       <c r="G21">
         <v>16</v>
@@ -3507,11 +3507,11 @@
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="0"/>
-        <v>-16</v>
+        <v>166</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="1"/>
-        <v>-11</v>
+        <v>161</v>
       </c>
       <c r="M21">
         <v>16</v>
@@ -3524,11 +3524,11 @@
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="2"/>
-        <v>-11</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="3"/>
-        <v>-6</v>
+        <v>156</v>
       </c>
       <c r="S21">
         <v>16</v>
@@ -3541,11 +3541,11 @@
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="4"/>
-        <v>-6</v>
+        <v>156</v>
       </c>
       <c r="W21">
         <f t="shared" ca="1" si="5"/>
-        <v>-1</v>
+        <v>151</v>
       </c>
       <c r="Y21">
         <v>16</v>
@@ -3558,11 +3558,11 @@
       </c>
       <c r="AB21">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>151</v>
       </c>
       <c r="AC21">
         <f t="shared" ca="1" si="7"/>
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="AE21">
         <v>16</v>
@@ -3575,11 +3575,11 @@
       </c>
       <c r="AH21">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="AI21">
         <f t="shared" ca="1" si="19"/>
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="AK21">
         <v>16</v>
@@ -3592,11 +3592,11 @@
       </c>
       <c r="AN21">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>137</v>
       </c>
       <c r="AO21">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="AQ21">
         <v>16</v>
@@ -3609,11 +3609,11 @@
       </c>
       <c r="AT21">
         <f t="shared" ca="1" si="12"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="AU21">
         <f t="shared" ca="1" si="13"/>
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="AW21">
         <v>16</v>
@@ -3626,11 +3626,11 @@
       </c>
       <c r="AZ21">
         <f t="shared" ca="1" si="14"/>
-        <v>24</v>
+        <v>126</v>
       </c>
       <c r="BA21">
         <f t="shared" ca="1" si="20"/>
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="BC21">
         <v>16</v>
@@ -3643,11 +3643,11 @@
       </c>
       <c r="BF21">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>118</v>
       </c>
       <c r="BG21">
         <f t="shared" ca="1" si="17"/>
-        <v>40</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
@@ -3661,11 +3661,11 @@
         <v>5</v>
       </c>
       <c r="D22" s="2">
-        <v>-29</v>
+        <v>179</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="18"/>
-        <v>-21</v>
+        <v>171</v>
       </c>
       <c r="G22">
         <v>17</v>
@@ -3678,11 +3678,11 @@
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="0"/>
-        <v>-21</v>
+        <v>171</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="1"/>
-        <v>-16</v>
+        <v>166</v>
       </c>
       <c r="M22">
         <v>17</v>
@@ -3695,11 +3695,11 @@
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="2"/>
-        <v>-16</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="3"/>
-        <v>-11</v>
+        <v>161</v>
       </c>
       <c r="S22">
         <v>17</v>
@@ -3712,11 +3712,11 @@
       </c>
       <c r="V22">
         <f t="shared" ca="1" si="4"/>
-        <v>-11</v>
+        <v>161</v>
       </c>
       <c r="W22">
         <f t="shared" ca="1" si="5"/>
-        <v>-6</v>
+        <v>156</v>
       </c>
       <c r="Y22">
         <v>17</v>
@@ -3729,11 +3729,11 @@
       </c>
       <c r="AB22">
         <f t="shared" ca="1" si="6"/>
-        <v>-6</v>
+        <v>156</v>
       </c>
       <c r="AC22">
         <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="AE22">
         <v>17</v>
@@ -3746,11 +3746,11 @@
       </c>
       <c r="AH22">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="AI22">
         <f t="shared" ca="1" si="19"/>
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="AK22">
         <v>17</v>
@@ -3763,11 +3763,11 @@
       </c>
       <c r="AN22">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>142</v>
       </c>
       <c r="AO22">
         <f t="shared" ca="1" si="11"/>
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="AQ22">
         <v>17</v>
@@ -3780,11 +3780,11 @@
       </c>
       <c r="AT22">
         <f t="shared" ca="1" si="12"/>
-        <v>14</v>
+        <v>136</v>
       </c>
       <c r="AU22">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="AW22">
         <v>17</v>
@@ -3797,11 +3797,11 @@
       </c>
       <c r="AZ22">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="BA22">
         <f t="shared" ca="1" si="20"/>
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="BC22">
         <v>17</v>
@@ -3814,11 +3814,11 @@
       </c>
       <c r="BF22">
         <f t="shared" ca="1" si="16"/>
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="BG22">
         <f t="shared" ca="1" si="17"/>
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">

--- a/test/move_axle_loc.xlsx
+++ b/test/move_axle_loc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="550" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -126,17 +126,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -218,7 +214,7 @@
   </sheetPr>
   <dimension ref="A1:BG28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AK12" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="BA5" activeCellId="0" sqref="BA5:BA22"/>
     </sheetView>
   </sheetViews>
@@ -557,12 +553,12 @@
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="2" t="n">
-        <v>75</v>
+      <c r="D5" s="0" t="n">
+        <v>125</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D5+INDIRECT(CONCATENATE("C",C$2-1+5)),D5-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0</v>
@@ -575,11 +571,11 @@
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">E5</f>
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J5+INDIRECT(CONCATENATE("C",I$2-1+5)),J5-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>0</v>
@@ -592,11 +588,11 @@
       </c>
       <c r="P5" s="0" t="n">
         <f aca="false">K5</f>
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P5+INDIRECT(CONCATENATE("C",O$2-1+5)),P5-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="S5" s="0" t="n">
         <v>0</v>
@@ -609,11 +605,11 @@
       </c>
       <c r="V5" s="0" t="n">
         <f aca="false">Q5</f>
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="W5" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V5+INDIRECT(CONCATENATE("C",U$2-1+5)),V5-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="Y5" s="0" t="n">
         <v>0</v>
@@ -626,11 +622,11 @@
       </c>
       <c r="AB5" s="0" t="n">
         <f aca="false">W5</f>
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="AC5" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB5+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB5-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="AE5" s="0" t="n">
         <v>0</v>
@@ -643,11 +639,11 @@
       </c>
       <c r="AH5" s="0" t="n">
         <f aca="false">AC5</f>
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="AI5" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH5+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH5-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="AK5" s="0" t="n">
         <v>0</v>
@@ -660,11 +656,11 @@
       </c>
       <c r="AN5" s="0" t="n">
         <f aca="false">AI5</f>
-        <v>112</v>
+        <v>162</v>
       </c>
       <c r="AO5" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN5+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN5-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="AQ5" s="0" t="n">
         <v>0</v>
@@ -677,11 +673,11 @@
       </c>
       <c r="AT5" s="0" t="n">
         <f aca="false">AO5</f>
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="AU5" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT5+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT5-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="AW5" s="0" t="n">
         <v>0</v>
@@ -694,11 +690,11 @@
       </c>
       <c r="AZ5" s="0" t="n">
         <f aca="false">AU5</f>
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="BA5" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ5+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ5-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="BC5" s="0" t="n">
         <v>0</v>
@@ -711,11 +707,11 @@
       </c>
       <c r="BF5" s="0" t="n">
         <f aca="false">BA5</f>
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="BG5" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF5+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF5-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>139</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -728,12 +724,12 @@
       <c r="C6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D6" s="2" t="n">
-        <v>67</v>
+      <c r="D6" s="0" t="n">
+        <v>117</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D6+INDIRECT(CONCATENATE("C",C$2-1+5)),D6-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1</v>
@@ -746,11 +742,11 @@
       </c>
       <c r="J6" s="0" t="n">
         <f aca="false">E6</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J6+INDIRECT(CONCATENATE("C",I$2-1+5)),J6-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>1</v>
@@ -763,11 +759,11 @@
       </c>
       <c r="P6" s="0" t="n">
         <f aca="false">K6</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="Q6" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P6+INDIRECT(CONCATENATE("C",O$2-1+5)),P6-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>1</v>
@@ -780,11 +776,11 @@
       </c>
       <c r="V6" s="0" t="n">
         <f aca="false">Q6</f>
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="W6" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V6+INDIRECT(CONCATENATE("C",U$2-1+5)),V6-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="Y6" s="0" t="n">
         <v>1</v>
@@ -797,11 +793,11 @@
       </c>
       <c r="AB6" s="0" t="n">
         <f aca="false">W6</f>
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AC6" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB6+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB6-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="AE6" s="0" t="n">
         <v>1</v>
@@ -814,11 +810,11 @@
       </c>
       <c r="AH6" s="0" t="n">
         <f aca="false">AC6</f>
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="AI6" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH6+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH6-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="AK6" s="0" t="n">
         <v>1</v>
@@ -831,11 +827,11 @@
       </c>
       <c r="AN6" s="0" t="n">
         <f aca="false">AI6</f>
-        <v>104</v>
+        <v>154</v>
       </c>
       <c r="AO6" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN6+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN6-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AQ6" s="0" t="n">
         <v>1</v>
@@ -848,11 +844,11 @@
       </c>
       <c r="AT6" s="0" t="n">
         <f aca="false">AO6</f>
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AU6" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT6+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT6-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="AW6" s="0" t="n">
         <v>1</v>
@@ -865,11 +861,11 @@
       </c>
       <c r="AZ6" s="0" t="n">
         <f aca="false">AU6</f>
-        <v>115</v>
+        <v>165</v>
       </c>
       <c r="BA6" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ6+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ6-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="BC6" s="0" t="n">
         <v>1</v>
@@ -882,11 +878,11 @@
       </c>
       <c r="BF6" s="0" t="n">
         <f aca="false">BA6</f>
-        <v>123</v>
+        <v>173</v>
       </c>
       <c r="BG6" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF6+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF6-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>131</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -899,12 +895,12 @@
       <c r="C7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="2" t="n">
-        <v>62</v>
+      <c r="D7" s="0" t="n">
+        <v>112</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D7+INDIRECT(CONCATENATE("C",C$2-1+5)),D7-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>2</v>
@@ -917,11 +913,11 @@
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">E7</f>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J7+INDIRECT(CONCATENATE("C",I$2-1+5)),J7-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>2</v>
@@ -934,11 +930,11 @@
       </c>
       <c r="P7" s="0" t="n">
         <f aca="false">K7</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P7+INDIRECT(CONCATENATE("C",O$2-1+5)),P7-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="S7" s="0" t="n">
         <v>2</v>
@@ -951,11 +947,11 @@
       </c>
       <c r="V7" s="0" t="n">
         <f aca="false">Q7</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="W7" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V7+INDIRECT(CONCATENATE("C",U$2-1+5)),V7-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="Y7" s="0" t="n">
         <v>2</v>
@@ -968,11 +964,11 @@
       </c>
       <c r="AB7" s="0" t="n">
         <f aca="false">W7</f>
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="AC7" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB7+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB7-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="AE7" s="0" t="n">
         <v>2</v>
@@ -985,11 +981,11 @@
       </c>
       <c r="AH7" s="0" t="n">
         <f aca="false">AC7</f>
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="AI7" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH7+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH7-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="AK7" s="0" t="n">
         <v>2</v>
@@ -1002,11 +998,11 @@
       </c>
       <c r="AN7" s="0" t="n">
         <f aca="false">AI7</f>
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="AO7" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN7+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN7-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="AQ7" s="0" t="n">
         <v>2</v>
@@ -1019,11 +1015,11 @@
       </c>
       <c r="AT7" s="0" t="n">
         <f aca="false">AO7</f>
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="AU7" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT7+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT7-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AW7" s="0" t="n">
         <v>2</v>
@@ -1036,11 +1032,11 @@
       </c>
       <c r="AZ7" s="0" t="n">
         <f aca="false">AU7</f>
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="BA7" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ7+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ7-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="BC7" s="0" t="n">
         <v>2</v>
@@ -1053,11 +1049,11 @@
       </c>
       <c r="BF7" s="0" t="n">
         <f aca="false">BA7</f>
-        <v>118</v>
+        <v>168</v>
       </c>
       <c r="BG7" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF7+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF7-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>126</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1070,12 +1066,12 @@
       <c r="C8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="2" t="n">
-        <v>57</v>
+      <c r="D8" s="0" t="n">
+        <v>107</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D8+INDIRECT(CONCATENATE("C",C$2-1+5)),D8-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>3</v>
@@ -1088,11 +1084,11 @@
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">E8</f>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J8+INDIRECT(CONCATENATE("C",I$2-1+5)),J8-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>3</v>
@@ -1105,11 +1101,11 @@
       </c>
       <c r="P8" s="0" t="n">
         <f aca="false">K8</f>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="Q8" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P8+INDIRECT(CONCATENATE("C",O$2-1+5)),P8-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="S8" s="0" t="n">
         <v>3</v>
@@ -1122,11 +1118,11 @@
       </c>
       <c r="V8" s="0" t="n">
         <f aca="false">Q8</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="W8" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V8+INDIRECT(CONCATENATE("C",U$2-1+5)),V8-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="Y8" s="0" t="n">
         <v>3</v>
@@ -1139,11 +1135,11 @@
       </c>
       <c r="AB8" s="0" t="n">
         <f aca="false">W8</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AC8" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB8+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB8-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="AE8" s="0" t="n">
         <v>3</v>
@@ -1156,11 +1152,11 @@
       </c>
       <c r="AH8" s="0" t="n">
         <f aca="false">AC8</f>
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="AI8" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH8+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH8-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="AK8" s="0" t="n">
         <v>3</v>
@@ -1173,11 +1169,11 @@
       </c>
       <c r="AN8" s="0" t="n">
         <f aca="false">AI8</f>
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="AO8" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN8+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN8-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AQ8" s="0" t="n">
         <v>3</v>
@@ -1190,11 +1186,11 @@
       </c>
       <c r="AT8" s="0" t="n">
         <f aca="false">AO8</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AU8" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT8+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT8-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="AW8" s="0" t="n">
         <v>3</v>
@@ -1207,11 +1203,11 @@
       </c>
       <c r="AZ8" s="0" t="n">
         <f aca="false">AU8</f>
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="BA8" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ8+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ8-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="BC8" s="0" t="n">
         <v>3</v>
@@ -1224,11 +1220,11 @@
       </c>
       <c r="BF8" s="0" t="n">
         <f aca="false">BA8</f>
-        <v>113</v>
+        <v>163</v>
       </c>
       <c r="BG8" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF8+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF8-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>121</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,12 +1237,12 @@
       <c r="C9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="2" t="n">
-        <v>52</v>
+      <c r="D9" s="0" t="n">
+        <v>102</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D9+INDIRECT(CONCATENATE("C",C$2-1+5)),D9-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>4</v>
@@ -1259,11 +1255,11 @@
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">E9</f>
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J9+INDIRECT(CONCATENATE("C",I$2-1+5)),J9-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>4</v>
@@ -1276,11 +1272,11 @@
       </c>
       <c r="P9" s="0" t="n">
         <f aca="false">K9</f>
-        <v>65</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P9+INDIRECT(CONCATENATE("C",O$2-1+5)),P9-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>4</v>
@@ -1293,11 +1289,11 @@
       </c>
       <c r="V9" s="0" t="n">
         <f aca="false">Q9</f>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="W9" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V9+INDIRECT(CONCATENATE("C",U$2-1+5)),V9-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="Y9" s="0" t="n">
         <v>4</v>
@@ -1310,11 +1306,11 @@
       </c>
       <c r="AB9" s="0" t="n">
         <f aca="false">W9</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AC9" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB9+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB9-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="AE9" s="0" t="n">
         <v>4</v>
@@ -1327,11 +1323,11 @@
       </c>
       <c r="AH9" s="0" t="n">
         <f aca="false">AC9</f>
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="AI9" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH9+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH9-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="AK9" s="0" t="n">
         <v>4</v>
@@ -1344,11 +1340,11 @@
       </c>
       <c r="AN9" s="0" t="n">
         <f aca="false">AI9</f>
-        <v>89</v>
+        <v>139</v>
       </c>
       <c r="AO9" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN9+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN9-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="AQ9" s="0" t="n">
         <v>4</v>
@@ -1361,11 +1357,11 @@
       </c>
       <c r="AT9" s="0" t="n">
         <f aca="false">AO9</f>
-        <v>95</v>
+        <v>145</v>
       </c>
       <c r="AU9" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT9+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT9-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AW9" s="0" t="n">
         <v>4</v>
@@ -1378,11 +1374,11 @@
       </c>
       <c r="AZ9" s="0" t="n">
         <f aca="false">AU9</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="BA9" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ9+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ9-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BC9" s="0" t="n">
         <v>4</v>
@@ -1395,11 +1391,11 @@
       </c>
       <c r="BF9" s="0" t="n">
         <f aca="false">BA9</f>
-        <v>108</v>
+        <v>158</v>
       </c>
       <c r="BG9" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF9+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF9-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>116</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1412,12 +1408,12 @@
       <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="2" t="n">
-        <v>43</v>
+      <c r="D10" s="0" t="n">
+        <v>93</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D10+INDIRECT(CONCATENATE("C",C$2-1+5)),D10-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>5</v>
@@ -1430,11 +1426,11 @@
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false">E10</f>
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="K10" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J10+INDIRECT(CONCATENATE("C",I$2-1+5)),J10-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>5</v>
@@ -1447,11 +1443,11 @@
       </c>
       <c r="P10" s="0" t="n">
         <f aca="false">K10</f>
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P10+INDIRECT(CONCATENATE("C",O$2-1+5)),P10-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="S10" s="0" t="n">
         <v>5</v>
@@ -1464,11 +1460,11 @@
       </c>
       <c r="V10" s="0" t="n">
         <f aca="false">Q10</f>
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="W10" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V10+INDIRECT(CONCATENATE("C",U$2-1+5)),V10-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="Y10" s="0" t="n">
         <v>5</v>
@@ -1481,11 +1477,11 @@
       </c>
       <c r="AB10" s="0" t="n">
         <f aca="false">W10</f>
-        <v>66</v>
+        <v>116</v>
       </c>
       <c r="AC10" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB10+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB10-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AE10" s="0" t="n">
         <v>5</v>
@@ -1498,11 +1494,11 @@
       </c>
       <c r="AH10" s="0" t="n">
         <f aca="false">AC10</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AI10" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH10+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH10-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AK10" s="0" t="n">
         <v>5</v>
@@ -1515,11 +1511,11 @@
       </c>
       <c r="AN10" s="0" t="n">
         <f aca="false">AI10</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AO10" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN10+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN10-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="AQ10" s="0" t="n">
         <v>5</v>
@@ -1532,11 +1528,11 @@
       </c>
       <c r="AT10" s="0" t="n">
         <f aca="false">AO10</f>
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="AU10" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT10+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT10-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="AW10" s="0" t="n">
         <v>5</v>
@@ -1549,11 +1545,11 @@
       </c>
       <c r="AZ10" s="0" t="n">
         <f aca="false">AU10</f>
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="BA10" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ10+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ10-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="BC10" s="0" t="n">
         <v>5</v>
@@ -1566,11 +1562,11 @@
       </c>
       <c r="BF10" s="0" t="n">
         <f aca="false">BA10</f>
-        <v>99</v>
+        <v>149</v>
       </c>
       <c r="BG10" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF10+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF10-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>107</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1583,12 +1579,12 @@
       <c r="C11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D11" s="2" t="n">
-        <v>38</v>
+      <c r="D11" s="0" t="n">
+        <v>88</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D11+INDIRECT(CONCATENATE("C",C$2-1+5)),D11-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>6</v>
@@ -1601,11 +1597,11 @@
       </c>
       <c r="J11" s="0" t="n">
         <f aca="false">E11</f>
-        <v>46</v>
+        <v>96</v>
       </c>
       <c r="K11" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J11+INDIRECT(CONCATENATE("C",I$2-1+5)),J11-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>6</v>
@@ -1618,11 +1614,11 @@
       </c>
       <c r="P11" s="0" t="n">
         <f aca="false">K11</f>
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="Q11" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P11+INDIRECT(CONCATENATE("C",O$2-1+5)),P11-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="S11" s="0" t="n">
         <v>6</v>
@@ -1635,11 +1631,11 @@
       </c>
       <c r="V11" s="0" t="n">
         <f aca="false">Q11</f>
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="W11" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V11+INDIRECT(CONCATENATE("C",U$2-1+5)),V11-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="Y11" s="0" t="n">
         <v>6</v>
@@ -1652,11 +1648,11 @@
       </c>
       <c r="AB11" s="0" t="n">
         <f aca="false">W11</f>
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="AC11" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB11+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB11-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AE11" s="0" t="n">
         <v>6</v>
@@ -1669,11 +1665,11 @@
       </c>
       <c r="AH11" s="0" t="n">
         <f aca="false">AC11</f>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AI11" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH11+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH11-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AK11" s="0" t="n">
         <v>6</v>
@@ -1686,11 +1682,11 @@
       </c>
       <c r="AN11" s="0" t="n">
         <f aca="false">AI11</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AO11" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN11+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN11-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AQ11" s="0" t="n">
         <v>6</v>
@@ -1703,11 +1699,11 @@
       </c>
       <c r="AT11" s="0" t="n">
         <f aca="false">AO11</f>
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AU11" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT11+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT11-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="AW11" s="0" t="n">
         <v>6</v>
@@ -1720,11 +1716,11 @@
       </c>
       <c r="AZ11" s="0" t="n">
         <f aca="false">AU11</f>
-        <v>86</v>
+        <v>136</v>
       </c>
       <c r="BA11" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ11+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ11-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="BC11" s="0" t="n">
         <v>6</v>
@@ -1737,11 +1733,11 @@
       </c>
       <c r="BF11" s="0" t="n">
         <f aca="false">BA11</f>
-        <v>94</v>
+        <v>144</v>
       </c>
       <c r="BG11" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF11+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF11-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>102</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1754,12 +1750,12 @@
       <c r="C12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D12" s="2" t="n">
-        <v>32</v>
+      <c r="D12" s="0" t="n">
+        <v>82</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D12+INDIRECT(CONCATENATE("C",C$2-1+5)),D12-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>7</v>
@@ -1772,11 +1768,11 @@
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">E12</f>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J12+INDIRECT(CONCATENATE("C",I$2-1+5)),J12-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>7</v>
@@ -1789,11 +1785,11 @@
       </c>
       <c r="P12" s="0" t="n">
         <f aca="false">K12</f>
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="Q12" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P12+INDIRECT(CONCATENATE("C",O$2-1+5)),P12-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S12" s="0" t="n">
         <v>7</v>
@@ -1806,11 +1802,11 @@
       </c>
       <c r="V12" s="0" t="n">
         <f aca="false">Q12</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="W12" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V12+INDIRECT(CONCATENATE("C",U$2-1+5)),V12-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="Y12" s="0" t="n">
         <v>7</v>
@@ -1823,11 +1819,11 @@
       </c>
       <c r="AB12" s="0" t="n">
         <f aca="false">W12</f>
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="AC12" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB12+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB12-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="AE12" s="0" t="n">
         <v>7</v>
@@ -1840,11 +1836,11 @@
       </c>
       <c r="AH12" s="0" t="n">
         <f aca="false">AC12</f>
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="AI12" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH12+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH12-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="AK12" s="0" t="n">
         <v>7</v>
@@ -1857,11 +1853,11 @@
       </c>
       <c r="AN12" s="0" t="n">
         <f aca="false">AI12</f>
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="AO12" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN12+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN12-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AQ12" s="0" t="n">
         <v>7</v>
@@ -1874,11 +1870,11 @@
       </c>
       <c r="AT12" s="0" t="n">
         <f aca="false">AO12</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AU12" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT12+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT12-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="AW12" s="0" t="n">
         <v>7</v>
@@ -1891,11 +1887,11 @@
       </c>
       <c r="AZ12" s="0" t="n">
         <f aca="false">AU12</f>
-        <v>80</v>
+        <v>130</v>
       </c>
       <c r="BA12" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ12+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ12-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="BC12" s="0" t="n">
         <v>7</v>
@@ -1908,11 +1904,11 @@
       </c>
       <c r="BF12" s="0" t="n">
         <f aca="false">BA12</f>
-        <v>88</v>
+        <v>138</v>
       </c>
       <c r="BG12" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF12+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF12-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>96</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1925,12 +1921,12 @@
       <c r="C13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D13" s="2" t="n">
-        <v>27</v>
+      <c r="D13" s="0" t="n">
+        <v>77</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D13+INDIRECT(CONCATENATE("C",C$2-1+5)),D13-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>8</v>
@@ -1943,11 +1939,11 @@
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">E13</f>
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J13+INDIRECT(CONCATENATE("C",I$2-1+5)),J13-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>8</v>
@@ -1960,11 +1956,11 @@
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">K13</f>
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P13+INDIRECT(CONCATENATE("C",O$2-1+5)),P13-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>8</v>
@@ -1977,11 +1973,11 @@
       </c>
       <c r="V13" s="0" t="n">
         <f aca="false">Q13</f>
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="W13" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V13+INDIRECT(CONCATENATE("C",U$2-1+5)),V13-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="Y13" s="0" t="n">
         <v>8</v>
@@ -1994,11 +1990,11 @@
       </c>
       <c r="AB13" s="0" t="n">
         <f aca="false">W13</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AC13" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB13+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB13-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="AE13" s="0" t="n">
         <v>8</v>
@@ -2011,11 +2007,11 @@
       </c>
       <c r="AH13" s="0" t="n">
         <f aca="false">AC13</f>
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="AI13" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH13+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH13-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="AK13" s="0" t="n">
         <v>8</v>
@@ -2028,11 +2024,11 @@
       </c>
       <c r="AN13" s="0" t="n">
         <f aca="false">AI13</f>
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="AO13" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN13+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN13-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AQ13" s="0" t="n">
         <v>8</v>
@@ -2045,11 +2041,11 @@
       </c>
       <c r="AT13" s="0" t="n">
         <f aca="false">AO13</f>
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AU13" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT13+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT13-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AW13" s="0" t="n">
         <v>8</v>
@@ -2062,11 +2058,11 @@
       </c>
       <c r="AZ13" s="0" t="n">
         <f aca="false">AU13</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="BA13" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ13+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ13-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="BC13" s="0" t="n">
         <v>8</v>
@@ -2079,11 +2075,11 @@
       </c>
       <c r="BF13" s="0" t="n">
         <f aca="false">BA13</f>
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="BG13" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF13+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF13-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>91</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2096,12 +2092,12 @@
       <c r="C14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D14" s="2" t="n">
-        <v>19</v>
+      <c r="D14" s="0" t="n">
+        <v>69</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D14+INDIRECT(CONCATENATE("C",C$2-1+5)),D14-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>9</v>
@@ -2114,11 +2110,11 @@
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">E14</f>
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J14+INDIRECT(CONCATENATE("C",I$2-1+5)),J14-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>9</v>
@@ -2131,11 +2127,11 @@
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">K14</f>
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P14+INDIRECT(CONCATENATE("C",O$2-1+5)),P14-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="S14" s="0" t="n">
         <v>9</v>
@@ -2148,11 +2144,11 @@
       </c>
       <c r="V14" s="0" t="n">
         <f aca="false">Q14</f>
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="W14" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V14+INDIRECT(CONCATENATE("C",U$2-1+5)),V14-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="Y14" s="0" t="n">
         <v>9</v>
@@ -2165,11 +2161,11 @@
       </c>
       <c r="AB14" s="0" t="n">
         <f aca="false">W14</f>
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="AC14" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB14+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB14-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AE14" s="0" t="n">
         <v>9</v>
@@ -2182,11 +2178,11 @@
       </c>
       <c r="AH14" s="0" t="n">
         <f aca="false">AC14</f>
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AI14" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH14+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH14-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="AK14" s="0" t="n">
         <v>9</v>
@@ -2199,11 +2195,11 @@
       </c>
       <c r="AN14" s="0" t="n">
         <f aca="false">AI14</f>
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="AO14" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN14+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN14-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="AQ14" s="0" t="n">
         <v>9</v>
@@ -2216,11 +2212,11 @@
       </c>
       <c r="AT14" s="0" t="n">
         <f aca="false">AO14</f>
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="AU14" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT14+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT14-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="AW14" s="0" t="n">
         <v>9</v>
@@ -2233,11 +2229,11 @@
       </c>
       <c r="AZ14" s="0" t="n">
         <f aca="false">AU14</f>
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="BA14" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ14+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ14-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="BC14" s="0" t="n">
         <v>9</v>
@@ -2250,11 +2246,11 @@
       </c>
       <c r="BF14" s="0" t="n">
         <f aca="false">BA14</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="BG14" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF14+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF14-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2267,12 +2263,12 @@
       <c r="C15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D15" s="2" t="n">
-        <v>11</v>
+      <c r="D15" s="0" t="n">
+        <v>61</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D15+INDIRECT(CONCATENATE("C",C$2-1+5)),D15-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10</v>
@@ -2285,11 +2281,11 @@
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">E15</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J15+INDIRECT(CONCATENATE("C",I$2-1+5)),J15-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>10</v>
@@ -2302,11 +2298,11 @@
       </c>
       <c r="P15" s="0" t="n">
         <f aca="false">K15</f>
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="Q15" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P15+INDIRECT(CONCATENATE("C",O$2-1+5)),P15-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="S15" s="0" t="n">
         <v>10</v>
@@ -2319,11 +2315,11 @@
       </c>
       <c r="V15" s="0" t="n">
         <f aca="false">Q15</f>
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="W15" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V15+INDIRECT(CONCATENATE("C",U$2-1+5)),V15-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="Y15" s="0" t="n">
         <v>10</v>
@@ -2336,11 +2332,11 @@
       </c>
       <c r="AB15" s="0" t="n">
         <f aca="false">W15</f>
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="AC15" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB15+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB15-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="AE15" s="0" t="n">
         <v>10</v>
@@ -2353,11 +2349,11 @@
       </c>
       <c r="AH15" s="0" t="n">
         <f aca="false">AC15</f>
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="AI15" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH15+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH15-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="AK15" s="0" t="n">
         <v>10</v>
@@ -2370,11 +2366,11 @@
       </c>
       <c r="AN15" s="0" t="n">
         <f aca="false">AI15</f>
-        <v>48</v>
+        <v>98</v>
       </c>
       <c r="AO15" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN15+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN15-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="AQ15" s="0" t="n">
         <v>10</v>
@@ -2387,11 +2383,11 @@
       </c>
       <c r="AT15" s="0" t="n">
         <f aca="false">AO15</f>
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="AU15" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT15+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT15-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="AW15" s="0" t="n">
         <v>10</v>
@@ -2404,11 +2400,11 @@
       </c>
       <c r="AZ15" s="0" t="n">
         <f aca="false">AU15</f>
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="BA15" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ15+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ15-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="BC15" s="0" t="n">
         <v>10</v>
@@ -2421,11 +2417,11 @@
       </c>
       <c r="BF15" s="0" t="n">
         <f aca="false">BA15</f>
-        <v>67</v>
+        <v>117</v>
       </c>
       <c r="BG15" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF15+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF15-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,12 +2434,12 @@
       <c r="C16" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D16" s="2" t="n">
-        <v>6</v>
+      <c r="D16" s="0" t="n">
+        <v>56</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D16+INDIRECT(CONCATENATE("C",C$2-1+5)),D16-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>11</v>
@@ -2456,11 +2452,11 @@
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">E16</f>
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J16+INDIRECT(CONCATENATE("C",I$2-1+5)),J16-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>11</v>
@@ -2473,11 +2469,11 @@
       </c>
       <c r="P16" s="0" t="n">
         <f aca="false">K16</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="Q16" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P16+INDIRECT(CONCATENATE("C",O$2-1+5)),P16-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="S16" s="0" t="n">
         <v>11</v>
@@ -2490,11 +2486,11 @@
       </c>
       <c r="V16" s="0" t="n">
         <f aca="false">Q16</f>
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="W16" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V16+INDIRECT(CONCATENATE("C",U$2-1+5)),V16-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="Y16" s="0" t="n">
         <v>11</v>
@@ -2507,11 +2503,11 @@
       </c>
       <c r="AB16" s="0" t="n">
         <f aca="false">W16</f>
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="AC16" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB16+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB16-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="AE16" s="0" t="n">
         <v>11</v>
@@ -2524,11 +2520,11 @@
       </c>
       <c r="AH16" s="0" t="n">
         <f aca="false">AC16</f>
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="AI16" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH16+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH16-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="AK16" s="0" t="n">
         <v>11</v>
@@ -2541,11 +2537,11 @@
       </c>
       <c r="AN16" s="0" t="n">
         <f aca="false">AI16</f>
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="AO16" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN16+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN16-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AQ16" s="0" t="n">
         <v>11</v>
@@ -2558,11 +2554,11 @@
       </c>
       <c r="AT16" s="0" t="n">
         <f aca="false">AO16</f>
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AU16" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT16+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT16-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="AW16" s="0" t="n">
         <v>11</v>
@@ -2575,11 +2571,11 @@
       </c>
       <c r="AZ16" s="0" t="n">
         <f aca="false">AU16</f>
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="BA16" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ16+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ16-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="BC16" s="0" t="n">
         <v>11</v>
@@ -2592,11 +2588,11 @@
       </c>
       <c r="BF16" s="0" t="n">
         <f aca="false">BA16</f>
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="BG16" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF16+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF16-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>70</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2609,12 +2605,12 @@
       <c r="C17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D17" s="2" t="n">
-        <v>1</v>
+      <c r="D17" s="0" t="n">
+        <v>51</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D17+INDIRECT(CONCATENATE("C",C$2-1+5)),D17-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>12</v>
@@ -2627,11 +2623,11 @@
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">E17</f>
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J17+INDIRECT(CONCATENATE("C",I$2-1+5)),J17-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>12</v>
@@ -2644,11 +2640,11 @@
       </c>
       <c r="P17" s="0" t="n">
         <f aca="false">K17</f>
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="Q17" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P17+INDIRECT(CONCATENATE("C",O$2-1+5)),P17-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="S17" s="0" t="n">
         <v>12</v>
@@ -2661,11 +2657,11 @@
       </c>
       <c r="V17" s="0" t="n">
         <f aca="false">Q17</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="W17" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V17+INDIRECT(CONCATENATE("C",U$2-1+5)),V17-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="Y17" s="0" t="n">
         <v>12</v>
@@ -2678,11 +2674,11 @@
       </c>
       <c r="AB17" s="0" t="n">
         <f aca="false">W17</f>
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="AC17" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB17+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB17-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="AE17" s="0" t="n">
         <v>12</v>
@@ -2695,11 +2691,11 @@
       </c>
       <c r="AH17" s="0" t="n">
         <f aca="false">AC17</f>
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="AI17" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH17+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH17-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="AK17" s="0" t="n">
         <v>12</v>
@@ -2712,11 +2708,11 @@
       </c>
       <c r="AN17" s="0" t="n">
         <f aca="false">AI17</f>
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="AO17" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN17+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN17-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AQ17" s="0" t="n">
         <v>12</v>
@@ -2729,11 +2725,11 @@
       </c>
       <c r="AT17" s="0" t="n">
         <f aca="false">AO17</f>
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AU17" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT17+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT17-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AW17" s="0" t="n">
         <v>12</v>
@@ -2746,11 +2742,11 @@
       </c>
       <c r="AZ17" s="0" t="n">
         <f aca="false">AU17</f>
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="BA17" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ17+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ17-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="BC17" s="0" t="n">
         <v>12</v>
@@ -2763,11 +2759,11 @@
       </c>
       <c r="BF17" s="0" t="n">
         <f aca="false">BA17</f>
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="BG17" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF17+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF17-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>65</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2780,12 +2776,12 @@
       <c r="C18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D18" s="2" t="n">
-        <v>-4</v>
+      <c r="D18" s="0" t="n">
+        <v>46</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D18+INDIRECT(CONCATENATE("C",C$2-1+5)),D18-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>13</v>
@@ -2798,11 +2794,11 @@
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">E18</f>
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J18+INDIRECT(CONCATENATE("C",I$2-1+5)),J18-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>13</v>
@@ -2815,11 +2811,11 @@
       </c>
       <c r="P18" s="0" t="n">
         <f aca="false">K18</f>
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="Q18" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P18+INDIRECT(CONCATENATE("C",O$2-1+5)),P18-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="S18" s="0" t="n">
         <v>13</v>
@@ -2832,11 +2828,11 @@
       </c>
       <c r="V18" s="0" t="n">
         <f aca="false">Q18</f>
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="W18" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V18+INDIRECT(CONCATENATE("C",U$2-1+5)),V18-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="Y18" s="0" t="n">
         <v>13</v>
@@ -2849,11 +2845,11 @@
       </c>
       <c r="AB18" s="0" t="n">
         <f aca="false">W18</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="AC18" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB18+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB18-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="AE18" s="0" t="n">
         <v>13</v>
@@ -2866,11 +2862,11 @@
       </c>
       <c r="AH18" s="0" t="n">
         <f aca="false">AC18</f>
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="AI18" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH18+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH18-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="AK18" s="0" t="n">
         <v>13</v>
@@ -2883,11 +2879,11 @@
       </c>
       <c r="AN18" s="0" t="n">
         <f aca="false">AI18</f>
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="AO18" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN18+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN18-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AQ18" s="0" t="n">
         <v>13</v>
@@ -2900,11 +2896,11 @@
       </c>
       <c r="AT18" s="0" t="n">
         <f aca="false">AO18</f>
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="AU18" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT18+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT18-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="AW18" s="0" t="n">
         <v>13</v>
@@ -2917,11 +2913,11 @@
       </c>
       <c r="AZ18" s="0" t="n">
         <f aca="false">AU18</f>
-        <v>44</v>
+        <v>94</v>
       </c>
       <c r="BA18" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ18+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ18-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="BC18" s="0" t="n">
         <v>13</v>
@@ -2934,11 +2930,11 @@
       </c>
       <c r="BF18" s="0" t="n">
         <f aca="false">BA18</f>
-        <v>52</v>
+        <v>102</v>
       </c>
       <c r="BG18" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF18+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF18-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>60</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,12 +2947,12 @@
       <c r="C19" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D19" s="2" t="n">
-        <v>-13</v>
+      <c r="D19" s="0" t="n">
+        <v>37</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D19+INDIRECT(CONCATENATE("C",C$2-1+5)),D19-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>-5</v>
+        <v>45</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>14</v>
@@ -2969,11 +2965,11 @@
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">E19</f>
-        <v>-5</v>
+        <v>45</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J19+INDIRECT(CONCATENATE("C",I$2-1+5)),J19-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>14</v>
@@ -2986,11 +2982,11 @@
       </c>
       <c r="P19" s="0" t="n">
         <f aca="false">K19</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q19" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P19+INDIRECT(CONCATENATE("C",O$2-1+5)),P19-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>14</v>
@@ -3003,11 +2999,11 @@
       </c>
       <c r="V19" s="0" t="n">
         <f aca="false">Q19</f>
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="W19" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V19+INDIRECT(CONCATENATE("C",U$2-1+5)),V19-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="Y19" s="0" t="n">
         <v>14</v>
@@ -3020,11 +3016,11 @@
       </c>
       <c r="AB19" s="0" t="n">
         <f aca="false">W19</f>
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AC19" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB19+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB19-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="AE19" s="0" t="n">
         <v>14</v>
@@ -3037,11 +3033,11 @@
       </c>
       <c r="AH19" s="0" t="n">
         <f aca="false">AC19</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="AI19" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH19+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH19-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="AK19" s="0" t="n">
         <v>14</v>
@@ -3054,11 +3050,11 @@
       </c>
       <c r="AN19" s="0" t="n">
         <f aca="false">AI19</f>
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="AO19" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN19+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN19-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AQ19" s="0" t="n">
         <v>14</v>
@@ -3071,11 +3067,11 @@
       </c>
       <c r="AT19" s="0" t="n">
         <f aca="false">AO19</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AU19" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT19+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT19-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="AW19" s="0" t="n">
         <v>14</v>
@@ -3088,11 +3084,11 @@
       </c>
       <c r="AZ19" s="0" t="n">
         <f aca="false">AU19</f>
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="BA19" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ19+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ19-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="BC19" s="0" t="n">
         <v>14</v>
@@ -3105,11 +3101,11 @@
       </c>
       <c r="BF19" s="0" t="n">
         <f aca="false">BA19</f>
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="BG19" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF19+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF19-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>51</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3122,12 +3118,12 @@
       <c r="C20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D20" s="2" t="n">
-        <v>-18</v>
+      <c r="D20" s="0" t="n">
+        <v>32</v>
       </c>
       <c r="E20" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D20+INDIRECT(CONCATENATE("C",C$2-1+5)),D20-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>-10</v>
+        <v>40</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>15</v>
@@ -3140,11 +3136,11 @@
       </c>
       <c r="J20" s="0" t="n">
         <f aca="false">E20</f>
-        <v>-10</v>
+        <v>40</v>
       </c>
       <c r="K20" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J20+INDIRECT(CONCATENATE("C",I$2-1+5)),J20-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>-5</v>
+        <v>45</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>15</v>
@@ -3157,11 +3153,11 @@
       </c>
       <c r="P20" s="0" t="n">
         <f aca="false">K20</f>
-        <v>-5</v>
+        <v>45</v>
       </c>
       <c r="Q20" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P20+INDIRECT(CONCATENATE("C",O$2-1+5)),P20-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S20" s="0" t="n">
         <v>15</v>
@@ -3174,11 +3170,11 @@
       </c>
       <c r="V20" s="0" t="n">
         <f aca="false">Q20</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="W20" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V20+INDIRECT(CONCATENATE("C",U$2-1+5)),V20-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="Y20" s="0" t="n">
         <v>15</v>
@@ -3191,11 +3187,11 @@
       </c>
       <c r="AB20" s="0" t="n">
         <f aca="false">W20</f>
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="AC20" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB20+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB20-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="AE20" s="0" t="n">
         <v>15</v>
@@ -3208,11 +3204,11 @@
       </c>
       <c r="AH20" s="0" t="n">
         <f aca="false">AC20</f>
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="AI20" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH20+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH20-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="AK20" s="0" t="n">
         <v>15</v>
@@ -3225,11 +3221,11 @@
       </c>
       <c r="AN20" s="0" t="n">
         <f aca="false">AI20</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="AO20" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN20+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN20-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AQ20" s="0" t="n">
         <v>15</v>
@@ -3242,11 +3238,11 @@
       </c>
       <c r="AT20" s="0" t="n">
         <f aca="false">AO20</f>
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="AU20" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT20+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT20-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="AW20" s="0" t="n">
         <v>15</v>
@@ -3259,11 +3255,11 @@
       </c>
       <c r="AZ20" s="0" t="n">
         <f aca="false">AU20</f>
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="BA20" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ20+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ20-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="BC20" s="0" t="n">
         <v>15</v>
@@ -3276,11 +3272,11 @@
       </c>
       <c r="BF20" s="0" t="n">
         <f aca="false">BA20</f>
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="BG20" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF20+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF20-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>46</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3293,12 +3289,12 @@
       <c r="C21" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D21" s="2" t="n">
-        <v>-24</v>
+      <c r="D21" s="0" t="n">
+        <v>26</v>
       </c>
       <c r="E21" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D21+INDIRECT(CONCATENATE("C",C$2-1+5)),D21-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>-16</v>
+        <v>34</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>16</v>
@@ -3311,11 +3307,11 @@
       </c>
       <c r="J21" s="0" t="n">
         <f aca="false">E21</f>
-        <v>-16</v>
+        <v>34</v>
       </c>
       <c r="K21" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J21+INDIRECT(CONCATENATE("C",I$2-1+5)),J21-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>-11</v>
+        <v>39</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>16</v>
@@ -3328,11 +3324,11 @@
       </c>
       <c r="P21" s="0" t="n">
         <f aca="false">K21</f>
-        <v>-11</v>
+        <v>39</v>
       </c>
       <c r="Q21" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P21+INDIRECT(CONCATENATE("C",O$2-1+5)),P21-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>-6</v>
+        <v>44</v>
       </c>
       <c r="S21" s="0" t="n">
         <v>16</v>
@@ -3345,11 +3341,11 @@
       </c>
       <c r="V21" s="0" t="n">
         <f aca="false">Q21</f>
-        <v>-6</v>
+        <v>44</v>
       </c>
       <c r="W21" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V21+INDIRECT(CONCATENATE("C",U$2-1+5)),V21-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>-1</v>
+        <v>49</v>
       </c>
       <c r="Y21" s="0" t="n">
         <v>16</v>
@@ -3362,11 +3358,11 @@
       </c>
       <c r="AB21" s="0" t="n">
         <f aca="false">W21</f>
-        <v>-1</v>
+        <v>49</v>
       </c>
       <c r="AC21" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB21+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB21-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="AE21" s="0" t="n">
         <v>16</v>
@@ -3379,11 +3375,11 @@
       </c>
       <c r="AH21" s="0" t="n">
         <f aca="false">AC21</f>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="AI21" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH21+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH21-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="AK21" s="0" t="n">
         <v>16</v>
@@ -3396,11 +3392,11 @@
       </c>
       <c r="AN21" s="0" t="n">
         <f aca="false">AI21</f>
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="AO21" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN21+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN21-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="AQ21" s="0" t="n">
         <v>16</v>
@@ -3413,11 +3409,11 @@
       </c>
       <c r="AT21" s="0" t="n">
         <f aca="false">AO21</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="AU21" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT21+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT21-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="AW21" s="0" t="n">
         <v>16</v>
@@ -3430,11 +3426,11 @@
       </c>
       <c r="AZ21" s="0" t="n">
         <f aca="false">AU21</f>
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="BA21" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ21+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ21-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="BC21" s="0" t="n">
         <v>16</v>
@@ -3447,11 +3443,11 @@
       </c>
       <c r="BF21" s="0" t="n">
         <f aca="false">BA21</f>
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="BG21" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF21+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF21-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3464,12 +3460,12 @@
       <c r="C22" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D22" s="2" t="n">
-        <v>-29</v>
+      <c r="D22" s="0" t="n">
+        <v>21</v>
       </c>
       <c r="E22" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D22+INDIRECT(CONCATENATE("C",C$2-1+5)),D22-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>-21</v>
+        <v>29</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>17</v>
@@ -3482,11 +3478,11 @@
       </c>
       <c r="J22" s="0" t="n">
         <f aca="false">E22</f>
-        <v>-21</v>
+        <v>29</v>
       </c>
       <c r="K22" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J22+INDIRECT(CONCATENATE("C",I$2-1+5)),J22-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>-16</v>
+        <v>34</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>17</v>
@@ -3499,11 +3495,11 @@
       </c>
       <c r="P22" s="0" t="n">
         <f aca="false">K22</f>
-        <v>-16</v>
+        <v>34</v>
       </c>
       <c r="Q22" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P22+INDIRECT(CONCATENATE("C",O$2-1+5)),P22-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>-11</v>
+        <v>39</v>
       </c>
       <c r="S22" s="0" t="n">
         <v>17</v>
@@ -3516,11 +3512,11 @@
       </c>
       <c r="V22" s="0" t="n">
         <f aca="false">Q22</f>
-        <v>-11</v>
+        <v>39</v>
       </c>
       <c r="W22" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V22+INDIRECT(CONCATENATE("C",U$2-1+5)),V22-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>-6</v>
+        <v>44</v>
       </c>
       <c r="Y22" s="0" t="n">
         <v>17</v>
@@ -3533,11 +3529,11 @@
       </c>
       <c r="AB22" s="0" t="n">
         <f aca="false">W22</f>
-        <v>-6</v>
+        <v>44</v>
       </c>
       <c r="AC22" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB22+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB22-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="AE22" s="0" t="n">
         <v>17</v>
@@ -3550,11 +3546,11 @@
       </c>
       <c r="AH22" s="0" t="n">
         <f aca="false">AC22</f>
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="AI22" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH22+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH22-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="AK22" s="0" t="n">
         <v>17</v>
@@ -3567,11 +3563,11 @@
       </c>
       <c r="AN22" s="0" t="n">
         <f aca="false">AI22</f>
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="AO22" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN22+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN22-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="AQ22" s="0" t="n">
         <v>17</v>
@@ -3584,11 +3580,11 @@
       </c>
       <c r="AT22" s="0" t="n">
         <f aca="false">AO22</f>
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="AU22" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT22+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT22-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="AW22" s="0" t="n">
         <v>17</v>
@@ -3601,11 +3597,11 @@
       </c>
       <c r="AZ22" s="0" t="n">
         <f aca="false">AU22</f>
-        <v>19</v>
+        <v>69</v>
       </c>
       <c r="BA22" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ22+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ22-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="BC22" s="0" t="n">
         <v>17</v>
@@ -3618,11 +3614,11 @@
       </c>
       <c r="BF22" s="0" t="n">
         <f aca="false">BA22</f>
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="BG22" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF22+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF22-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>35</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/test/move_axle_loc.xlsx
+++ b/test/move_axle_loc.xlsx
@@ -78,7 +78,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,7 +88,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FFFF9900"/>
+        <bgColor rgb="FFFFCC00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor rgb="FFFFC000"/>
       </patternFill>
     </fill>
   </fills>
@@ -126,13 +132,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -189,8 +199,8 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFFC000"/>
-      <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
       <rgbColor rgb="FF969696"/>
@@ -214,7 +224,7 @@
   </sheetPr>
   <dimension ref="A1:BG28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AJ1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AI1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="BA5" activeCellId="0" sqref="BA5:BA22"/>
     </sheetView>
   </sheetViews>
@@ -553,12 +563,12 @@
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D5" s="0" t="n">
-        <v>125</v>
+      <c r="D5" s="2" t="n">
+        <v>75</v>
       </c>
       <c r="E5" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D5+INDIRECT(CONCATENATE("C",C$2-1+5)),D5-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>0</v>
@@ -571,11 +581,11 @@
       </c>
       <c r="J5" s="0" t="n">
         <f aca="false">E5</f>
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J5+INDIRECT(CONCATENATE("C",I$2-1+5)),J5-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="M5" s="0" t="n">
         <v>0</v>
@@ -588,11 +598,11 @@
       </c>
       <c r="P5" s="0" t="n">
         <f aca="false">K5</f>
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="Q5" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P5+INDIRECT(CONCATENATE("C",O$2-1+5)),P5-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="S5" s="0" t="n">
         <v>0</v>
@@ -605,11 +615,11 @@
       </c>
       <c r="V5" s="0" t="n">
         <f aca="false">Q5</f>
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="W5" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V5+INDIRECT(CONCATENATE("C",U$2-1+5)),V5-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="Y5" s="0" t="n">
         <v>0</v>
@@ -622,11 +632,11 @@
       </c>
       <c r="AB5" s="0" t="n">
         <f aca="false">W5</f>
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="AC5" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB5+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB5-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="AE5" s="0" t="n">
         <v>0</v>
@@ -639,11 +649,11 @@
       </c>
       <c r="AH5" s="0" t="n">
         <f aca="false">AC5</f>
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="AI5" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH5+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH5-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="AK5" s="0" t="n">
         <v>0</v>
@@ -656,11 +666,11 @@
       </c>
       <c r="AN5" s="0" t="n">
         <f aca="false">AI5</f>
-        <v>162</v>
+        <v>112</v>
       </c>
       <c r="AO5" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN5+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN5-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="AQ5" s="0" t="n">
         <v>0</v>
@@ -673,11 +683,11 @@
       </c>
       <c r="AT5" s="0" t="n">
         <f aca="false">AO5</f>
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="AU5" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT5+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT5-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="AW5" s="0" t="n">
         <v>0</v>
@@ -690,11 +700,11 @@
       </c>
       <c r="AZ5" s="0" t="n">
         <f aca="false">AU5</f>
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="BA5" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ5+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ5-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="BC5" s="0" t="n">
         <v>0</v>
@@ -707,11 +717,11 @@
       </c>
       <c r="BF5" s="0" t="n">
         <f aca="false">BA5</f>
-        <v>181</v>
+        <v>131</v>
       </c>
       <c r="BG5" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF5+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF5-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>189</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -724,12 +734,12 @@
       <c r="C6" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D6" s="0" t="n">
-        <v>117</v>
+      <c r="D6" s="2" t="n">
+        <v>67</v>
       </c>
       <c r="E6" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D6+INDIRECT(CONCATENATE("C",C$2-1+5)),D6-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>1</v>
@@ -742,11 +752,11 @@
       </c>
       <c r="J6" s="0" t="n">
         <f aca="false">E6</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J6+INDIRECT(CONCATENATE("C",I$2-1+5)),J6-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>1</v>
@@ -759,11 +769,11 @@
       </c>
       <c r="P6" s="0" t="n">
         <f aca="false">K6</f>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="Q6" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P6+INDIRECT(CONCATENATE("C",O$2-1+5)),P6-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>1</v>
@@ -776,11 +786,11 @@
       </c>
       <c r="V6" s="0" t="n">
         <f aca="false">Q6</f>
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="W6" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V6+INDIRECT(CONCATENATE("C",U$2-1+5)),V6-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="Y6" s="0" t="n">
         <v>1</v>
@@ -793,11 +803,11 @@
       </c>
       <c r="AB6" s="0" t="n">
         <f aca="false">W6</f>
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="AC6" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB6+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB6-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="AE6" s="0" t="n">
         <v>1</v>
@@ -810,11 +820,11 @@
       </c>
       <c r="AH6" s="0" t="n">
         <f aca="false">AC6</f>
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="AI6" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH6+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH6-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="AK6" s="0" t="n">
         <v>1</v>
@@ -827,11 +837,11 @@
       </c>
       <c r="AN6" s="0" t="n">
         <f aca="false">AI6</f>
-        <v>154</v>
+        <v>104</v>
       </c>
       <c r="AO6" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN6+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN6-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AQ6" s="0" t="n">
         <v>1</v>
@@ -844,11 +854,11 @@
       </c>
       <c r="AT6" s="0" t="n">
         <f aca="false">AO6</f>
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AU6" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT6+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT6-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="AW6" s="0" t="n">
         <v>1</v>
@@ -861,11 +871,11 @@
       </c>
       <c r="AZ6" s="0" t="n">
         <f aca="false">AU6</f>
-        <v>165</v>
+        <v>115</v>
       </c>
       <c r="BA6" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ6+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ6-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="BC6" s="0" t="n">
         <v>1</v>
@@ -878,11 +888,11 @@
       </c>
       <c r="BF6" s="0" t="n">
         <f aca="false">BA6</f>
-        <v>173</v>
+        <v>123</v>
       </c>
       <c r="BG6" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF6+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF6-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>181</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -895,12 +905,12 @@
       <c r="C7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D7" s="0" t="n">
-        <v>112</v>
+      <c r="D7" s="2" t="n">
+        <v>62</v>
       </c>
       <c r="E7" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D7+INDIRECT(CONCATENATE("C",C$2-1+5)),D7-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>2</v>
@@ -913,11 +923,11 @@
       </c>
       <c r="J7" s="0" t="n">
         <f aca="false">E7</f>
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J7+INDIRECT(CONCATENATE("C",I$2-1+5)),J7-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="M7" s="0" t="n">
         <v>2</v>
@@ -930,11 +940,11 @@
       </c>
       <c r="P7" s="0" t="n">
         <f aca="false">K7</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P7+INDIRECT(CONCATENATE("C",O$2-1+5)),P7-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="S7" s="0" t="n">
         <v>2</v>
@@ -947,11 +957,11 @@
       </c>
       <c r="V7" s="0" t="n">
         <f aca="false">Q7</f>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="W7" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V7+INDIRECT(CONCATENATE("C",U$2-1+5)),V7-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="Y7" s="0" t="n">
         <v>2</v>
@@ -964,11 +974,11 @@
       </c>
       <c r="AB7" s="0" t="n">
         <f aca="false">W7</f>
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="AC7" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB7+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB7-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="AE7" s="0" t="n">
         <v>2</v>
@@ -981,11 +991,11 @@
       </c>
       <c r="AH7" s="0" t="n">
         <f aca="false">AC7</f>
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="AI7" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH7+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH7-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="AK7" s="0" t="n">
         <v>2</v>
@@ -998,11 +1008,11 @@
       </c>
       <c r="AN7" s="0" t="n">
         <f aca="false">AI7</f>
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="AO7" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN7+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN7-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="AQ7" s="0" t="n">
         <v>2</v>
@@ -1015,11 +1025,11 @@
       </c>
       <c r="AT7" s="0" t="n">
         <f aca="false">AO7</f>
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="AU7" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT7+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT7-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="AW7" s="0" t="n">
         <v>2</v>
@@ -1032,11 +1042,11 @@
       </c>
       <c r="AZ7" s="0" t="n">
         <f aca="false">AU7</f>
-        <v>160</v>
+        <v>110</v>
       </c>
       <c r="BA7" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ7+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ7-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="BC7" s="0" t="n">
         <v>2</v>
@@ -1049,11 +1059,11 @@
       </c>
       <c r="BF7" s="0" t="n">
         <f aca="false">BA7</f>
-        <v>168</v>
+        <v>118</v>
       </c>
       <c r="BG7" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF7+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF7-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>176</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1066,12 +1076,12 @@
       <c r="C8" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D8" s="0" t="n">
-        <v>107</v>
+      <c r="D8" s="2" t="n">
+        <v>57</v>
       </c>
       <c r="E8" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D8+INDIRECT(CONCATENATE("C",C$2-1+5)),D8-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>3</v>
@@ -1084,11 +1094,11 @@
       </c>
       <c r="J8" s="0" t="n">
         <f aca="false">E8</f>
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J8+INDIRECT(CONCATENATE("C",I$2-1+5)),J8-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>3</v>
@@ -1101,11 +1111,11 @@
       </c>
       <c r="P8" s="0" t="n">
         <f aca="false">K8</f>
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="Q8" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P8+INDIRECT(CONCATENATE("C",O$2-1+5)),P8-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="S8" s="0" t="n">
         <v>3</v>
@@ -1118,11 +1128,11 @@
       </c>
       <c r="V8" s="0" t="n">
         <f aca="false">Q8</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="W8" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V8+INDIRECT(CONCATENATE("C",U$2-1+5)),V8-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="Y8" s="0" t="n">
         <v>3</v>
@@ -1135,11 +1145,11 @@
       </c>
       <c r="AB8" s="0" t="n">
         <f aca="false">W8</f>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AC8" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB8+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB8-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="AE8" s="0" t="n">
         <v>3</v>
@@ -1152,11 +1162,11 @@
       </c>
       <c r="AH8" s="0" t="n">
         <f aca="false">AC8</f>
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="AI8" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH8+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH8-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="AK8" s="0" t="n">
         <v>3</v>
@@ -1169,11 +1179,11 @@
       </c>
       <c r="AN8" s="0" t="n">
         <f aca="false">AI8</f>
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="AO8" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN8+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN8-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AQ8" s="0" t="n">
         <v>3</v>
@@ -1186,11 +1196,11 @@
       </c>
       <c r="AT8" s="0" t="n">
         <f aca="false">AO8</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AU8" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT8+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT8-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="AW8" s="0" t="n">
         <v>3</v>
@@ -1203,11 +1213,11 @@
       </c>
       <c r="AZ8" s="0" t="n">
         <f aca="false">AU8</f>
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="BA8" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ8+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ8-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="BC8" s="0" t="n">
         <v>3</v>
@@ -1220,11 +1230,11 @@
       </c>
       <c r="BF8" s="0" t="n">
         <f aca="false">BA8</f>
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="BG8" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF8+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF8-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>171</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1237,12 +1247,12 @@
       <c r="C9" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D9" s="0" t="n">
-        <v>102</v>
+      <c r="D9" s="2" t="n">
+        <v>52</v>
       </c>
       <c r="E9" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D9+INDIRECT(CONCATENATE("C",C$2-1+5)),D9-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>4</v>
@@ -1255,11 +1265,11 @@
       </c>
       <c r="J9" s="0" t="n">
         <f aca="false">E9</f>
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J9+INDIRECT(CONCATENATE("C",I$2-1+5)),J9-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>4</v>
@@ -1272,11 +1282,11 @@
       </c>
       <c r="P9" s="0" t="n">
         <f aca="false">K9</f>
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="Q9" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P9+INDIRECT(CONCATENATE("C",O$2-1+5)),P9-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>4</v>
@@ -1289,11 +1299,11 @@
       </c>
       <c r="V9" s="0" t="n">
         <f aca="false">Q9</f>
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="W9" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V9+INDIRECT(CONCATENATE("C",U$2-1+5)),V9-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="Y9" s="0" t="n">
         <v>4</v>
@@ -1306,11 +1316,11 @@
       </c>
       <c r="AB9" s="0" t="n">
         <f aca="false">W9</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="AC9" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB9+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB9-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="AE9" s="0" t="n">
         <v>4</v>
@@ -1323,11 +1333,11 @@
       </c>
       <c r="AH9" s="0" t="n">
         <f aca="false">AC9</f>
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="AI9" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH9+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH9-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="AK9" s="0" t="n">
         <v>4</v>
@@ -1340,11 +1350,11 @@
       </c>
       <c r="AN9" s="0" t="n">
         <f aca="false">AI9</f>
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="AO9" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN9+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN9-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="AQ9" s="0" t="n">
         <v>4</v>
@@ -1357,11 +1367,11 @@
       </c>
       <c r="AT9" s="0" t="n">
         <f aca="false">AO9</f>
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="AU9" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT9+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT9-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="AW9" s="0" t="n">
         <v>4</v>
@@ -1374,11 +1384,11 @@
       </c>
       <c r="AZ9" s="0" t="n">
         <f aca="false">AU9</f>
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="BA9" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ9+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ9-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="BC9" s="0" t="n">
         <v>4</v>
@@ -1391,11 +1401,11 @@
       </c>
       <c r="BF9" s="0" t="n">
         <f aca="false">BA9</f>
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="BG9" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF9+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF9-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>166</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,12 +1418,12 @@
       <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D10" s="0" t="n">
-        <v>93</v>
+      <c r="D10" s="2" t="n">
+        <v>43</v>
       </c>
       <c r="E10" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D10+INDIRECT(CONCATENATE("C",C$2-1+5)),D10-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>5</v>
@@ -1426,11 +1436,11 @@
       </c>
       <c r="J10" s="0" t="n">
         <f aca="false">E10</f>
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="K10" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J10+INDIRECT(CONCATENATE("C",I$2-1+5)),J10-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="M10" s="0" t="n">
         <v>5</v>
@@ -1443,11 +1453,11 @@
       </c>
       <c r="P10" s="0" t="n">
         <f aca="false">K10</f>
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P10+INDIRECT(CONCATENATE("C",O$2-1+5)),P10-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="S10" s="0" t="n">
         <v>5</v>
@@ -1460,11 +1470,11 @@
       </c>
       <c r="V10" s="0" t="n">
         <f aca="false">Q10</f>
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="W10" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V10+INDIRECT(CONCATENATE("C",U$2-1+5)),V10-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="Y10" s="0" t="n">
         <v>5</v>
@@ -1477,11 +1487,11 @@
       </c>
       <c r="AB10" s="0" t="n">
         <f aca="false">W10</f>
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="AC10" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB10+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB10-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="AE10" s="0" t="n">
         <v>5</v>
@@ -1494,11 +1504,11 @@
       </c>
       <c r="AH10" s="0" t="n">
         <f aca="false">AC10</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="AI10" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH10+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH10-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AK10" s="0" t="n">
         <v>5</v>
@@ -1511,11 +1521,11 @@
       </c>
       <c r="AN10" s="0" t="n">
         <f aca="false">AI10</f>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AO10" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN10+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN10-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="AQ10" s="0" t="n">
         <v>5</v>
@@ -1528,11 +1538,11 @@
       </c>
       <c r="AT10" s="0" t="n">
         <f aca="false">AO10</f>
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="AU10" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT10+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT10-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="AW10" s="0" t="n">
         <v>5</v>
@@ -1545,11 +1555,11 @@
       </c>
       <c r="AZ10" s="0" t="n">
         <f aca="false">AU10</f>
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="BA10" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ10+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ10-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="BC10" s="0" t="n">
         <v>5</v>
@@ -1562,11 +1572,11 @@
       </c>
       <c r="BF10" s="0" t="n">
         <f aca="false">BA10</f>
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="BG10" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF10+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF10-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>157</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1579,12 +1589,12 @@
       <c r="C11" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D11" s="0" t="n">
-        <v>88</v>
+      <c r="D11" s="2" t="n">
+        <v>38</v>
       </c>
       <c r="E11" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D11+INDIRECT(CONCATENATE("C",C$2-1+5)),D11-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>6</v>
@@ -1597,11 +1607,11 @@
       </c>
       <c r="J11" s="0" t="n">
         <f aca="false">E11</f>
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="K11" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J11+INDIRECT(CONCATENATE("C",I$2-1+5)),J11-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="M11" s="0" t="n">
         <v>6</v>
@@ -1614,11 +1624,11 @@
       </c>
       <c r="P11" s="0" t="n">
         <f aca="false">K11</f>
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="Q11" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P11+INDIRECT(CONCATENATE("C",O$2-1+5)),P11-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="S11" s="0" t="n">
         <v>6</v>
@@ -1631,11 +1641,11 @@
       </c>
       <c r="V11" s="0" t="n">
         <f aca="false">Q11</f>
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="W11" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V11+INDIRECT(CONCATENATE("C",U$2-1+5)),V11-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="Y11" s="0" t="n">
         <v>6</v>
@@ -1648,11 +1658,11 @@
       </c>
       <c r="AB11" s="0" t="n">
         <f aca="false">W11</f>
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="AC11" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB11+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB11-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AE11" s="0" t="n">
         <v>6</v>
@@ -1665,11 +1675,11 @@
       </c>
       <c r="AH11" s="0" t="n">
         <f aca="false">AC11</f>
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AI11" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH11+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH11-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="AK11" s="0" t="n">
         <v>6</v>
@@ -1682,11 +1692,11 @@
       </c>
       <c r="AN11" s="0" t="n">
         <f aca="false">AI11</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="AO11" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN11+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN11-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AQ11" s="0" t="n">
         <v>6</v>
@@ -1699,11 +1709,11 @@
       </c>
       <c r="AT11" s="0" t="n">
         <f aca="false">AO11</f>
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="AU11" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT11+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT11-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="AW11" s="0" t="n">
         <v>6</v>
@@ -1716,11 +1726,11 @@
       </c>
       <c r="AZ11" s="0" t="n">
         <f aca="false">AU11</f>
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="BA11" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ11+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ11-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="BC11" s="0" t="n">
         <v>6</v>
@@ -1733,11 +1743,11 @@
       </c>
       <c r="BF11" s="0" t="n">
         <f aca="false">BA11</f>
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="BG11" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF11+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF11-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>152</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1750,12 +1760,12 @@
       <c r="C12" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D12" s="0" t="n">
-        <v>82</v>
+      <c r="D12" s="2" t="n">
+        <v>32</v>
       </c>
       <c r="E12" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D12+INDIRECT(CONCATENATE("C",C$2-1+5)),D12-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>7</v>
@@ -1768,11 +1778,11 @@
       </c>
       <c r="J12" s="0" t="n">
         <f aca="false">E12</f>
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J12+INDIRECT(CONCATENATE("C",I$2-1+5)),J12-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="M12" s="0" t="n">
         <v>7</v>
@@ -1785,11 +1795,11 @@
       </c>
       <c r="P12" s="0" t="n">
         <f aca="false">K12</f>
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P12+INDIRECT(CONCATENATE("C",O$2-1+5)),P12-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="S12" s="0" t="n">
         <v>7</v>
@@ -1802,11 +1812,11 @@
       </c>
       <c r="V12" s="0" t="n">
         <f aca="false">Q12</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="W12" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V12+INDIRECT(CONCATENATE("C",U$2-1+5)),V12-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="Y12" s="0" t="n">
         <v>7</v>
@@ -1819,11 +1829,11 @@
       </c>
       <c r="AB12" s="0" t="n">
         <f aca="false">W12</f>
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="AC12" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB12+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB12-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="AE12" s="0" t="n">
         <v>7</v>
@@ -1836,11 +1846,11 @@
       </c>
       <c r="AH12" s="0" t="n">
         <f aca="false">AC12</f>
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="AI12" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH12+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH12-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="AK12" s="0" t="n">
         <v>7</v>
@@ -1853,11 +1863,11 @@
       </c>
       <c r="AN12" s="0" t="n">
         <f aca="false">AI12</f>
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="AO12" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN12+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN12-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="AQ12" s="0" t="n">
         <v>7</v>
@@ -1870,11 +1880,11 @@
       </c>
       <c r="AT12" s="0" t="n">
         <f aca="false">AO12</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="AU12" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT12+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT12-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="AW12" s="0" t="n">
         <v>7</v>
@@ -1887,11 +1897,11 @@
       </c>
       <c r="AZ12" s="0" t="n">
         <f aca="false">AU12</f>
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="BA12" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ12+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ12-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="BC12" s="0" t="n">
         <v>7</v>
@@ -1904,11 +1914,11 @@
       </c>
       <c r="BF12" s="0" t="n">
         <f aca="false">BA12</f>
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="BG12" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF12+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF12-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>146</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1921,12 +1931,12 @@
       <c r="C13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D13" s="0" t="n">
-        <v>77</v>
+      <c r="D13" s="2" t="n">
+        <v>27</v>
       </c>
       <c r="E13" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D13+INDIRECT(CONCATENATE("C",C$2-1+5)),D13-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>8</v>
@@ -1939,11 +1949,11 @@
       </c>
       <c r="J13" s="0" t="n">
         <f aca="false">E13</f>
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J13+INDIRECT(CONCATENATE("C",I$2-1+5)),J13-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="M13" s="0" t="n">
         <v>8</v>
@@ -1956,11 +1966,11 @@
       </c>
       <c r="P13" s="0" t="n">
         <f aca="false">K13</f>
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="Q13" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P13+INDIRECT(CONCATENATE("C",O$2-1+5)),P13-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="S13" s="0" t="n">
         <v>8</v>
@@ -1973,11 +1983,11 @@
       </c>
       <c r="V13" s="0" t="n">
         <f aca="false">Q13</f>
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="W13" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V13+INDIRECT(CONCATENATE("C",U$2-1+5)),V13-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="Y13" s="0" t="n">
         <v>8</v>
@@ -1990,11 +2000,11 @@
       </c>
       <c r="AB13" s="0" t="n">
         <f aca="false">W13</f>
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AC13" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB13+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB13-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="AE13" s="0" t="n">
         <v>8</v>
@@ -2007,11 +2017,11 @@
       </c>
       <c r="AH13" s="0" t="n">
         <f aca="false">AC13</f>
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="AI13" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH13+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH13-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="AK13" s="0" t="n">
         <v>8</v>
@@ -2024,11 +2034,11 @@
       </c>
       <c r="AN13" s="0" t="n">
         <f aca="false">AI13</f>
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="AO13" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN13+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN13-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AQ13" s="0" t="n">
         <v>8</v>
@@ -2041,11 +2051,11 @@
       </c>
       <c r="AT13" s="0" t="n">
         <f aca="false">AO13</f>
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="AU13" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT13+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT13-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="AW13" s="0" t="n">
         <v>8</v>
@@ -2058,11 +2068,11 @@
       </c>
       <c r="AZ13" s="0" t="n">
         <f aca="false">AU13</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="BA13" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ13+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ13-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="BC13" s="0" t="n">
         <v>8</v>
@@ -2075,11 +2085,11 @@
       </c>
       <c r="BF13" s="0" t="n">
         <f aca="false">BA13</f>
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="BG13" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF13+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF13-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>141</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2092,12 +2102,12 @@
       <c r="C14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D14" s="0" t="n">
-        <v>69</v>
+      <c r="D14" s="2" t="n">
+        <v>19</v>
       </c>
       <c r="E14" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D14+INDIRECT(CONCATENATE("C",C$2-1+5)),D14-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>9</v>
@@ -2110,11 +2120,11 @@
       </c>
       <c r="J14" s="0" t="n">
         <f aca="false">E14</f>
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J14+INDIRECT(CONCATENATE("C",I$2-1+5)),J14-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="M14" s="0" t="n">
         <v>9</v>
@@ -2127,11 +2137,11 @@
       </c>
       <c r="P14" s="0" t="n">
         <f aca="false">K14</f>
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="Q14" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P14+INDIRECT(CONCATENATE("C",O$2-1+5)),P14-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="S14" s="0" t="n">
         <v>9</v>
@@ -2144,11 +2154,11 @@
       </c>
       <c r="V14" s="0" t="n">
         <f aca="false">Q14</f>
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="W14" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V14+INDIRECT(CONCATENATE("C",U$2-1+5)),V14-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="Y14" s="0" t="n">
         <v>9</v>
@@ -2161,11 +2171,11 @@
       </c>
       <c r="AB14" s="0" t="n">
         <f aca="false">W14</f>
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="AC14" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB14+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB14-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AE14" s="0" t="n">
         <v>9</v>
@@ -2178,11 +2188,11 @@
       </c>
       <c r="AH14" s="0" t="n">
         <f aca="false">AC14</f>
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="AI14" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH14+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH14-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="AK14" s="0" t="n">
         <v>9</v>
@@ -2195,11 +2205,11 @@
       </c>
       <c r="AN14" s="0" t="n">
         <f aca="false">AI14</f>
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="AO14" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN14+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN14-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="AQ14" s="0" t="n">
         <v>9</v>
@@ -2212,11 +2222,11 @@
       </c>
       <c r="AT14" s="0" t="n">
         <f aca="false">AO14</f>
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="AU14" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT14+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT14-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="AW14" s="0" t="n">
         <v>9</v>
@@ -2229,11 +2239,11 @@
       </c>
       <c r="AZ14" s="0" t="n">
         <f aca="false">AU14</f>
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="BA14" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ14+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ14-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="BC14" s="0" t="n">
         <v>9</v>
@@ -2246,11 +2256,11 @@
       </c>
       <c r="BF14" s="0" t="n">
         <f aca="false">BA14</f>
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="BG14" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF14+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF14-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>133</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2263,12 +2273,12 @@
       <c r="C15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D15" s="0" t="n">
-        <v>61</v>
+      <c r="D15" s="2" t="n">
+        <v>11</v>
       </c>
       <c r="E15" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D15+INDIRECT(CONCATENATE("C",C$2-1+5)),D15-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>10</v>
@@ -2281,11 +2291,11 @@
       </c>
       <c r="J15" s="0" t="n">
         <f aca="false">E15</f>
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J15+INDIRECT(CONCATENATE("C",I$2-1+5)),J15-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>10</v>
@@ -2298,11 +2308,11 @@
       </c>
       <c r="P15" s="0" t="n">
         <f aca="false">K15</f>
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="Q15" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P15+INDIRECT(CONCATENATE("C",O$2-1+5)),P15-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="S15" s="0" t="n">
         <v>10</v>
@@ -2315,11 +2325,11 @@
       </c>
       <c r="V15" s="0" t="n">
         <f aca="false">Q15</f>
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="W15" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V15+INDIRECT(CONCATENATE("C",U$2-1+5)),V15-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="Y15" s="0" t="n">
         <v>10</v>
@@ -2332,11 +2342,11 @@
       </c>
       <c r="AB15" s="0" t="n">
         <f aca="false">W15</f>
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="AC15" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB15+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB15-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="AE15" s="0" t="n">
         <v>10</v>
@@ -2349,11 +2359,11 @@
       </c>
       <c r="AH15" s="0" t="n">
         <f aca="false">AC15</f>
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="AI15" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH15+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH15-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="AK15" s="0" t="n">
         <v>10</v>
@@ -2366,11 +2376,11 @@
       </c>
       <c r="AN15" s="0" t="n">
         <f aca="false">AI15</f>
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="AO15" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN15+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN15-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="AQ15" s="0" t="n">
         <v>10</v>
@@ -2383,11 +2393,11 @@
       </c>
       <c r="AT15" s="0" t="n">
         <f aca="false">AO15</f>
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="AU15" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT15+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT15-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="AW15" s="0" t="n">
         <v>10</v>
@@ -2400,11 +2410,11 @@
       </c>
       <c r="AZ15" s="0" t="n">
         <f aca="false">AU15</f>
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="BA15" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ15+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ15-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="BC15" s="0" t="n">
         <v>10</v>
@@ -2417,11 +2427,11 @@
       </c>
       <c r="BF15" s="0" t="n">
         <f aca="false">BA15</f>
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="BG15" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF15+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF15-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>125</v>
+        <v>75</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2434,12 +2444,12 @@
       <c r="C16" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D16" s="0" t="n">
-        <v>56</v>
+      <c r="D16" s="2" t="n">
+        <v>6</v>
       </c>
       <c r="E16" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D16+INDIRECT(CONCATENATE("C",C$2-1+5)),D16-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>11</v>
@@ -2452,11 +2462,11 @@
       </c>
       <c r="J16" s="0" t="n">
         <f aca="false">E16</f>
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J16+INDIRECT(CONCATENATE("C",I$2-1+5)),J16-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="M16" s="0" t="n">
         <v>11</v>
@@ -2469,11 +2479,11 @@
       </c>
       <c r="P16" s="0" t="n">
         <f aca="false">K16</f>
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P16+INDIRECT(CONCATENATE("C",O$2-1+5)),P16-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="S16" s="0" t="n">
         <v>11</v>
@@ -2486,11 +2496,11 @@
       </c>
       <c r="V16" s="0" t="n">
         <f aca="false">Q16</f>
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="W16" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V16+INDIRECT(CONCATENATE("C",U$2-1+5)),V16-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="Y16" s="0" t="n">
         <v>11</v>
@@ -2503,11 +2513,11 @@
       </c>
       <c r="AB16" s="0" t="n">
         <f aca="false">W16</f>
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="AC16" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB16+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB16-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="AE16" s="0" t="n">
         <v>11</v>
@@ -2520,11 +2530,11 @@
       </c>
       <c r="AH16" s="0" t="n">
         <f aca="false">AC16</f>
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="AI16" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH16+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH16-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="AK16" s="0" t="n">
         <v>11</v>
@@ -2537,11 +2547,11 @@
       </c>
       <c r="AN16" s="0" t="n">
         <f aca="false">AI16</f>
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="AO16" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN16+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN16-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="AQ16" s="0" t="n">
         <v>11</v>
@@ -2554,11 +2564,11 @@
       </c>
       <c r="AT16" s="0" t="n">
         <f aca="false">AO16</f>
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="AU16" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT16+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT16-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="AW16" s="0" t="n">
         <v>11</v>
@@ -2571,11 +2581,11 @@
       </c>
       <c r="AZ16" s="0" t="n">
         <f aca="false">AU16</f>
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="BA16" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ16+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ16-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="BC16" s="0" t="n">
         <v>11</v>
@@ -2588,11 +2598,11 @@
       </c>
       <c r="BF16" s="0" t="n">
         <f aca="false">BA16</f>
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="BG16" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF16+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF16-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>120</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,12 +2615,12 @@
       <c r="C17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D17" s="0" t="n">
-        <v>51</v>
+      <c r="D17" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="E17" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D17+INDIRECT(CONCATENATE("C",C$2-1+5)),D17-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>12</v>
@@ -2623,11 +2633,11 @@
       </c>
       <c r="J17" s="0" t="n">
         <f aca="false">E17</f>
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J17+INDIRECT(CONCATENATE("C",I$2-1+5)),J17-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="M17" s="0" t="n">
         <v>12</v>
@@ -2640,11 +2650,11 @@
       </c>
       <c r="P17" s="0" t="n">
         <f aca="false">K17</f>
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="Q17" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P17+INDIRECT(CONCATENATE("C",O$2-1+5)),P17-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="S17" s="0" t="n">
         <v>12</v>
@@ -2657,11 +2667,11 @@
       </c>
       <c r="V17" s="0" t="n">
         <f aca="false">Q17</f>
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="W17" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V17+INDIRECT(CONCATENATE("C",U$2-1+5)),V17-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="Y17" s="0" t="n">
         <v>12</v>
@@ -2674,11 +2684,11 @@
       </c>
       <c r="AB17" s="0" t="n">
         <f aca="false">W17</f>
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="AC17" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB17+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB17-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="AE17" s="0" t="n">
         <v>12</v>
@@ -2691,11 +2701,11 @@
       </c>
       <c r="AH17" s="0" t="n">
         <f aca="false">AC17</f>
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="AI17" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH17+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH17-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="AK17" s="0" t="n">
         <v>12</v>
@@ -2708,11 +2718,11 @@
       </c>
       <c r="AN17" s="0" t="n">
         <f aca="false">AI17</f>
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="AO17" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN17+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN17-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="AQ17" s="0" t="n">
         <v>12</v>
@@ -2725,11 +2735,11 @@
       </c>
       <c r="AT17" s="0" t="n">
         <f aca="false">AO17</f>
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="AU17" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT17+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT17-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="AW17" s="0" t="n">
         <v>12</v>
@@ -2742,11 +2752,11 @@
       </c>
       <c r="AZ17" s="0" t="n">
         <f aca="false">AU17</f>
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="BA17" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ17+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ17-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="BC17" s="0" t="n">
         <v>12</v>
@@ -2759,11 +2769,11 @@
       </c>
       <c r="BF17" s="0" t="n">
         <f aca="false">BA17</f>
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="BG17" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF17+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF17-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>115</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,12 +2786,12 @@
       <c r="C18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D18" s="0" t="n">
-        <v>46</v>
+      <c r="D18" s="2" t="n">
+        <v>-4</v>
       </c>
       <c r="E18" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D18+INDIRECT(CONCATENATE("C",C$2-1+5)),D18-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>13</v>
@@ -2794,11 +2804,11 @@
       </c>
       <c r="J18" s="0" t="n">
         <f aca="false">E18</f>
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J18+INDIRECT(CONCATENATE("C",I$2-1+5)),J18-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>13</v>
@@ -2811,11 +2821,11 @@
       </c>
       <c r="P18" s="0" t="n">
         <f aca="false">K18</f>
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="Q18" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P18+INDIRECT(CONCATENATE("C",O$2-1+5)),P18-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="S18" s="0" t="n">
         <v>13</v>
@@ -2828,11 +2838,11 @@
       </c>
       <c r="V18" s="0" t="n">
         <f aca="false">Q18</f>
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="W18" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V18+INDIRECT(CONCATENATE("C",U$2-1+5)),V18-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="Y18" s="0" t="n">
         <v>13</v>
@@ -2845,11 +2855,11 @@
       </c>
       <c r="AB18" s="0" t="n">
         <f aca="false">W18</f>
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="AC18" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB18+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB18-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="AE18" s="0" t="n">
         <v>13</v>
@@ -2862,11 +2872,11 @@
       </c>
       <c r="AH18" s="0" t="n">
         <f aca="false">AC18</f>
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="AI18" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH18+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH18-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="AK18" s="0" t="n">
         <v>13</v>
@@ -2879,11 +2889,11 @@
       </c>
       <c r="AN18" s="0" t="n">
         <f aca="false">AI18</f>
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="AO18" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN18+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN18-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AQ18" s="0" t="n">
         <v>13</v>
@@ -2896,11 +2906,11 @@
       </c>
       <c r="AT18" s="0" t="n">
         <f aca="false">AO18</f>
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="AU18" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT18+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT18-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="AW18" s="0" t="n">
         <v>13</v>
@@ -2913,11 +2923,11 @@
       </c>
       <c r="AZ18" s="0" t="n">
         <f aca="false">AU18</f>
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="BA18" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ18+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ18-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="BC18" s="0" t="n">
         <v>13</v>
@@ -2930,11 +2940,11 @@
       </c>
       <c r="BF18" s="0" t="n">
         <f aca="false">BA18</f>
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="BG18" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF18+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF18-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>110</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2947,12 +2957,12 @@
       <c r="C19" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="D19" s="0" t="n">
-        <v>37</v>
+      <c r="D19" s="2" t="n">
+        <v>-13</v>
       </c>
       <c r="E19" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D19+INDIRECT(CONCATENATE("C",C$2-1+5)),D19-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>45</v>
+        <v>-5</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>14</v>
@@ -2965,11 +2975,11 @@
       </c>
       <c r="J19" s="0" t="n">
         <f aca="false">E19</f>
-        <v>45</v>
+        <v>-5</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J19+INDIRECT(CONCATENATE("C",I$2-1+5)),J19-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>14</v>
@@ -2982,11 +2992,11 @@
       </c>
       <c r="P19" s="0" t="n">
         <f aca="false">K19</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P19+INDIRECT(CONCATENATE("C",O$2-1+5)),P19-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>14</v>
@@ -2999,11 +3009,11 @@
       </c>
       <c r="V19" s="0" t="n">
         <f aca="false">Q19</f>
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="W19" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V19+INDIRECT(CONCATENATE("C",U$2-1+5)),V19-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="Y19" s="0" t="n">
         <v>14</v>
@@ -3016,11 +3026,11 @@
       </c>
       <c r="AB19" s="0" t="n">
         <f aca="false">W19</f>
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="AC19" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB19+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB19-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="AE19" s="0" t="n">
         <v>14</v>
@@ -3033,11 +3043,11 @@
       </c>
       <c r="AH19" s="0" t="n">
         <f aca="false">AC19</f>
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="AI19" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH19+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH19-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="AK19" s="0" t="n">
         <v>14</v>
@@ -3050,11 +3060,11 @@
       </c>
       <c r="AN19" s="0" t="n">
         <f aca="false">AI19</f>
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="AO19" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN19+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN19-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AQ19" s="0" t="n">
         <v>14</v>
@@ -3067,11 +3077,11 @@
       </c>
       <c r="AT19" s="0" t="n">
         <f aca="false">AO19</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AU19" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT19+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT19-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="AW19" s="0" t="n">
         <v>14</v>
@@ -3084,11 +3094,11 @@
       </c>
       <c r="AZ19" s="0" t="n">
         <f aca="false">AU19</f>
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="BA19" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ19+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ19-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="BC19" s="0" t="n">
         <v>14</v>
@@ -3101,11 +3111,11 @@
       </c>
       <c r="BF19" s="0" t="n">
         <f aca="false">BA19</f>
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="BG19" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF19+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF19-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>101</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3118,12 +3128,12 @@
       <c r="C20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D20" s="0" t="n">
-        <v>32</v>
+      <c r="D20" s="2" t="n">
+        <v>-18</v>
       </c>
       <c r="E20" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D20+INDIRECT(CONCATENATE("C",C$2-1+5)),D20-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>40</v>
+        <v>-10</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>15</v>
@@ -3136,11 +3146,11 @@
       </c>
       <c r="J20" s="0" t="n">
         <f aca="false">E20</f>
-        <v>40</v>
+        <v>-10</v>
       </c>
       <c r="K20" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J20+INDIRECT(CONCATENATE("C",I$2-1+5)),J20-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>45</v>
+        <v>-5</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>15</v>
@@ -3153,11 +3163,11 @@
       </c>
       <c r="P20" s="0" t="n">
         <f aca="false">K20</f>
-        <v>45</v>
+        <v>-5</v>
       </c>
       <c r="Q20" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P20+INDIRECT(CONCATENATE("C",O$2-1+5)),P20-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S20" s="0" t="n">
         <v>15</v>
@@ -3170,11 +3180,11 @@
       </c>
       <c r="V20" s="0" t="n">
         <f aca="false">Q20</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="W20" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V20+INDIRECT(CONCATENATE("C",U$2-1+5)),V20-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="Y20" s="0" t="n">
         <v>15</v>
@@ -3187,11 +3197,11 @@
       </c>
       <c r="AB20" s="0" t="n">
         <f aca="false">W20</f>
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="AC20" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB20+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB20-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="AE20" s="0" t="n">
         <v>15</v>
@@ -3204,11 +3214,11 @@
       </c>
       <c r="AH20" s="0" t="n">
         <f aca="false">AC20</f>
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="AI20" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH20+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH20-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="AK20" s="0" t="n">
         <v>15</v>
@@ -3221,11 +3231,11 @@
       </c>
       <c r="AN20" s="0" t="n">
         <f aca="false">AI20</f>
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="AO20" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN20+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN20-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="AQ20" s="0" t="n">
         <v>15</v>
@@ -3238,11 +3248,11 @@
       </c>
       <c r="AT20" s="0" t="n">
         <f aca="false">AO20</f>
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="AU20" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT20+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT20-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AW20" s="0" t="n">
         <v>15</v>
@@ -3255,11 +3265,11 @@
       </c>
       <c r="AZ20" s="0" t="n">
         <f aca="false">AU20</f>
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="BA20" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ20+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ20-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="BC20" s="0" t="n">
         <v>15</v>
@@ -3272,11 +3282,11 @@
       </c>
       <c r="BF20" s="0" t="n">
         <f aca="false">BA20</f>
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="BG20" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF20+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF20-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>96</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3289,12 +3299,12 @@
       <c r="C21" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>26</v>
+      <c r="D21" s="2" t="n">
+        <v>-24</v>
       </c>
       <c r="E21" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D21+INDIRECT(CONCATENATE("C",C$2-1+5)),D21-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>34</v>
+        <v>-16</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>16</v>
@@ -3307,11 +3317,11 @@
       </c>
       <c r="J21" s="0" t="n">
         <f aca="false">E21</f>
-        <v>34</v>
+        <v>-16</v>
       </c>
       <c r="K21" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J21+INDIRECT(CONCATENATE("C",I$2-1+5)),J21-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>39</v>
+        <v>-11</v>
       </c>
       <c r="M21" s="0" t="n">
         <v>16</v>
@@ -3324,11 +3334,11 @@
       </c>
       <c r="P21" s="0" t="n">
         <f aca="false">K21</f>
-        <v>39</v>
+        <v>-11</v>
       </c>
       <c r="Q21" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P21+INDIRECT(CONCATENATE("C",O$2-1+5)),P21-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>44</v>
+        <v>-6</v>
       </c>
       <c r="S21" s="0" t="n">
         <v>16</v>
@@ -3341,11 +3351,11 @@
       </c>
       <c r="V21" s="0" t="n">
         <f aca="false">Q21</f>
-        <v>44</v>
+        <v>-6</v>
       </c>
       <c r="W21" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V21+INDIRECT(CONCATENATE("C",U$2-1+5)),V21-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>49</v>
+        <v>-1</v>
       </c>
       <c r="Y21" s="0" t="n">
         <v>16</v>
@@ -3358,11 +3368,11 @@
       </c>
       <c r="AB21" s="0" t="n">
         <f aca="false">W21</f>
-        <v>49</v>
+        <v>-1</v>
       </c>
       <c r="AC21" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB21+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB21-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="AE21" s="0" t="n">
         <v>16</v>
@@ -3375,11 +3385,11 @@
       </c>
       <c r="AH21" s="0" t="n">
         <f aca="false">AC21</f>
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="AI21" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH21+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH21-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="AK21" s="0" t="n">
         <v>16</v>
@@ -3392,11 +3402,11 @@
       </c>
       <c r="AN21" s="0" t="n">
         <f aca="false">AI21</f>
-        <v>63</v>
+        <v>13</v>
       </c>
       <c r="AO21" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN21+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN21-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="AQ21" s="0" t="n">
         <v>16</v>
@@ -3409,11 +3419,11 @@
       </c>
       <c r="AT21" s="0" t="n">
         <f aca="false">AO21</f>
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="AU21" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT21+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT21-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="AW21" s="0" t="n">
         <v>16</v>
@@ -3426,11 +3436,11 @@
       </c>
       <c r="AZ21" s="0" t="n">
         <f aca="false">AU21</f>
-        <v>74</v>
+        <v>24</v>
       </c>
       <c r="BA21" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ21+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ21-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="BC21" s="0" t="n">
         <v>16</v>
@@ -3443,11 +3453,11 @@
       </c>
       <c r="BF21" s="0" t="n">
         <f aca="false">BA21</f>
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="BG21" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF21+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF21-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3460,12 +3470,12 @@
       <c r="C22" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D22" s="0" t="n">
-        <v>21</v>
+      <c r="D22" s="2" t="n">
+        <v>-29</v>
       </c>
       <c r="E22" s="0" t="n">
         <f aca="true">IF(C$3="ltr",D22+INDIRECT(CONCATENATE("C",C$2-1+5)),D22-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>29</v>
+        <v>-21</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>17</v>
@@ -3478,11 +3488,11 @@
       </c>
       <c r="J22" s="0" t="n">
         <f aca="false">E22</f>
-        <v>29</v>
+        <v>-21</v>
       </c>
       <c r="K22" s="0" t="n">
         <f aca="true">IF(I$3="ltr",J22+INDIRECT(CONCATENATE("C",I$2-1+5)),J22-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>34</v>
+        <v>-16</v>
       </c>
       <c r="M22" s="0" t="n">
         <v>17</v>
@@ -3495,11 +3505,11 @@
       </c>
       <c r="P22" s="0" t="n">
         <f aca="false">K22</f>
-        <v>34</v>
+        <v>-16</v>
       </c>
       <c r="Q22" s="0" t="n">
         <f aca="true">IF(O$3="ltr",P22+INDIRECT(CONCATENATE("C",O$2-1+5)),P22-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>39</v>
+        <v>-11</v>
       </c>
       <c r="S22" s="0" t="n">
         <v>17</v>
@@ -3512,11 +3522,11 @@
       </c>
       <c r="V22" s="0" t="n">
         <f aca="false">Q22</f>
-        <v>39</v>
+        <v>-11</v>
       </c>
       <c r="W22" s="0" t="n">
         <f aca="true">IF(U$3="ltr",V22+INDIRECT(CONCATENATE("C",U$2-1+5)),V22-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>44</v>
+        <v>-6</v>
       </c>
       <c r="Y22" s="0" t="n">
         <v>17</v>
@@ -3529,11 +3539,11 @@
       </c>
       <c r="AB22" s="0" t="n">
         <f aca="false">W22</f>
-        <v>44</v>
+        <v>-6</v>
       </c>
       <c r="AC22" s="0" t="n">
         <f aca="true">IF(AA$3="ltr",AB22+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB22-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="AE22" s="0" t="n">
         <v>17</v>
@@ -3546,11 +3556,11 @@
       </c>
       <c r="AH22" s="0" t="n">
         <f aca="false">AC22</f>
-        <v>53</v>
+        <v>3</v>
       </c>
       <c r="AI22" s="0" t="n">
         <f aca="true">IF(AG$3="ltr",AH22+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH22-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="AK22" s="0" t="n">
         <v>17</v>
@@ -3563,11 +3573,11 @@
       </c>
       <c r="AN22" s="0" t="n">
         <f aca="false">AI22</f>
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="AO22" s="0" t="n">
         <f aca="true">IF(AM$3="ltr",AN22+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN22-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="AQ22" s="0" t="n">
         <v>17</v>
@@ -3580,11 +3590,11 @@
       </c>
       <c r="AT22" s="0" t="n">
         <f aca="false">AO22</f>
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="AU22" s="0" t="n">
         <f aca="true">IF(AS$3="ltr",AT22+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT22-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="AW22" s="0" t="n">
         <v>17</v>
@@ -3597,11 +3607,11 @@
       </c>
       <c r="AZ22" s="0" t="n">
         <f aca="false">AU22</f>
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="BA22" s="0" t="n">
         <f aca="true">IF(AY$3="ltr",AZ22+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ22-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="BC22" s="0" t="n">
         <v>17</v>
@@ -3614,11 +3624,11 @@
       </c>
       <c r="BF22" s="0" t="n">
         <f aca="false">BA22</f>
-        <v>77</v>
+        <v>27</v>
       </c>
       <c r="BG22" s="0" t="n">
         <f aca="true">IF(BE$3="ltr",BF22+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF22-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>85</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
